--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E70FD-2F51-4F95-80B5-1900FB1B8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908C75D-AEC1-43BC-A920-B419BE430D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -18243,7 +18243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
@@ -19020,11 +19020,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19050,7 +19050,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.46522639473684</v>
+        <v>1.4675361739379846</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19782,6 +19782,17 @@
       <c r="B40" s="58">
         <v>71.650002000000001</v>
       </c>
+      <c r="C40">
+        <v>71.055977272727276</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D44" si="29">B40-C40</f>
+        <v>0.59402472727272482</v>
+      </c>
+      <c r="E40" s="56">
+        <f t="shared" ref="E40:E44" si="30">D40/C40</f>
+        <v>8.3599543637650243E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
@@ -19789,6 +19800,79 @@
       </c>
       <c r="B41" s="58">
         <v>70.379997000000003</v>
+      </c>
+      <c r="C41">
+        <v>70.808298966942161</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="29"/>
+        <v>-0.42830196694215772</v>
+      </c>
+      <c r="E41" s="56">
+        <f t="shared" si="30"/>
+        <v>-6.0487537928586091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="58">
+        <v>72.699996999999996</v>
+      </c>
+      <c r="C42">
+        <v>70.63700346543952</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="29"/>
+        <v>2.0629935345604764</v>
+      </c>
+      <c r="E42" s="56">
+        <f t="shared" si="30"/>
+        <v>2.9205564128577943E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="58">
+        <v>72.190002000000007</v>
+      </c>
+      <c r="C43">
+        <v>70.505644532050397</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="29"/>
+        <v>1.6843574679496101</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" si="30"/>
+        <v>2.3889682579725034E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B44" s="58">
+        <v>73.809997999999993</v>
+      </c>
+      <c r="C44">
+        <v>70.297619283507231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="29"/>
+        <v>3.512378716492762</v>
+      </c>
+      <c r="E44" s="56">
+        <f t="shared" si="30"/>
+        <v>4.9964404944177296E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45">
+        <v>67.556899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908C75D-AEC1-43BC-A920-B419BE430D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B7C0-B694-469E-A2FA-14E4F2B5F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.4042243663258768E-3</v>
+        <v>5.4496812605470419E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D98" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D99" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E98" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E99" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7664,8 +7664,24 @@
       <c r="A99" s="1">
         <v>45299</v>
       </c>
+      <c r="B99">
+        <v>3.969392</v>
+      </c>
       <c r="C99">
         <v>3.959533</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="34"/>
+        <v>9.8590000000000622E-3</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="C100">
+        <v>3.9368856000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8814,11 +8830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A372" sqref="A372:B372"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8848,7 +8864,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5065389803776589E-2</v>
+        <v>-1.5053758379572889E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15951,11 +15967,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D372" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D373" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E372" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E373" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16020,8 +16036,24 @@
       <c r="A373" s="1">
         <v>45299</v>
       </c>
+      <c r="B373">
+        <v>4.3431499999999996</v>
+      </c>
       <c r="C373">
         <v>4.3538885000000001</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="87"/>
+        <v>-1.0738500000000428E-2</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="C374">
+        <v>4.3371753999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19020,11 +19052,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19050,7 +19082,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.4675361739379846</v>
+        <v>1.5072080108939396</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19786,11 +19818,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D44" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D45" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E44" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E45" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -19871,8 +19903,27 @@
       </c>
     </row>
     <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B45" s="58">
+        <v>70.769997000000004</v>
+      </c>
       <c r="C45">
         <v>67.556899999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="29"/>
+        <v>3.2130970000000048</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="30"/>
+        <v>4.7561344585083161E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46">
+        <v>69.269099999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B7C0-B694-469E-A2FA-14E4F2B5F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357161E8-2510-4519-AF4B-FD294CB6F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -8834,7 +8834,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
+      <selection pane="bottomLeft" activeCell="A373" sqref="A373:B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18275,9 +18275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19005,8 +19005,8 @@
       <c r="A66" s="1">
         <v>45299</v>
       </c>
-      <c r="B66" t="s">
-        <v>56</v>
+      <c r="B66">
+        <v>4.3431499999999996</v>
       </c>
       <c r="C66">
         <v>4.4120216000000001</v>
@@ -19054,7 +19054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357161E8-2510-4519-AF4B-FD294CB6F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375007B-C2E2-43A0-B587-33CD02D39BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.4496812605470419E-3</v>
+        <v>5.5814460962990897E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D99" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D100" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E99" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E100" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7680,8 +7680,27 @@
       </c>
     </row>
     <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B100">
+        <v>3.9553799999999999</v>
+      </c>
       <c r="C100">
         <v>3.9368856000000001</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="34"/>
+        <v>1.84943999999998E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="C101">
+        <v>3.9585032</v>
       </c>
     </row>
   </sheetData>
@@ -8830,11 +8849,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A373" sqref="A373:B373"/>
+      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8864,7 +8883,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5053758379572889E-2</v>
+        <v>-1.5029419617161165E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15967,11 +15986,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D373" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D374" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E373" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E374" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16052,8 +16071,27 @@
       </c>
     </row>
     <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B374">
+        <v>4.3311999999999999</v>
+      </c>
       <c r="C374">
         <v>4.3371753999999996</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="87"/>
+        <v>-5.975399999999631E-3</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="C375">
+        <v>4.3087369999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18275,9 +18313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:B66"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19016,8 +19054,8 @@
       <c r="A67" s="1">
         <v>45300</v>
       </c>
-      <c r="B67" t="s">
-        <v>56</v>
+      <c r="B67">
+        <v>4.3311999999999999</v>
       </c>
       <c r="C67">
         <v>4.426336</v>
@@ -19052,11 +19090,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19082,7 +19120,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.5072080108939396</v>
+        <v>1.5397344550962966</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19818,11 +19856,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D45" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D46" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E45" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E46" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -19922,8 +19960,27 @@
       </c>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B46" s="58">
+        <v>72.239998</v>
+      </c>
       <c r="C46">
         <v>69.269099999999995</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="29"/>
+        <v>2.9708980000000054</v>
+      </c>
+      <c r="E46" s="56">
+        <f t="shared" si="30"/>
+        <v>4.2889224776992994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47">
+        <v>67.362399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEA0043-B9D2-4B83-9758-F348AE0A1676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67502DF-CD8A-40F1-9E92-2D293B8FA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -8891,7 +8891,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C378" sqref="C378"/>
+      <selection pane="bottomLeft" activeCell="A376" sqref="A376:B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18387,11 +18387,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19152,11 +19152,66 @@
       <c r="A69" s="1">
         <v>45302</v>
       </c>
-      <c r="B69" t="s">
-        <v>56</v>
+      <c r="B69">
+        <v>4.3323</v>
       </c>
       <c r="C69">
         <v>4.4435086000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>4.3750229999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>4.3817259999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>4.3715267000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>4.3571977999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>4.3386009999999997</v>
       </c>
     </row>
   </sheetData>
@@ -19168,7 +19223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67502DF-CD8A-40F1-9E92-2D293B8FA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BDBDB-AACD-455C-994C-0FDF15BE310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.152029341916926E-3</v>
+        <v>5.1709114071922498E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D102" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D103" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E102" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E103" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7737,8 +7737,27 @@
       </c>
     </row>
     <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B103">
+        <v>3.9615999999999998</v>
+      </c>
       <c r="C103">
         <v>3.9545219999999999</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="34"/>
+        <v>7.0779999999999177E-3</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="C104">
+        <v>3.9736997999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8887,11 +8906,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A376" sqref="A376:B376"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A377" sqref="A377:B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8921,7 +8940,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4868448045869639E-2</v>
+        <v>-1.4754577173407219E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16024,11 +16043,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D376" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D377" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E376" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E377" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16166,8 +16185,27 @@
       </c>
     </row>
     <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B377">
+        <v>4.3518499999999998</v>
+      </c>
       <c r="C377">
         <v>4.3239029999999996</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="87"/>
+        <v>2.7947000000000166E-2</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="C378">
+        <v>4.3500959999999997</v>
       </c>
     </row>
   </sheetData>
@@ -18390,8 +18428,8 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71:B74"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19163,8 +19201,8 @@
       <c r="A70" s="1">
         <v>45303</v>
       </c>
-      <c r="B70" t="s">
-        <v>56</v>
+      <c r="B70">
+        <v>4.3518499999999998</v>
       </c>
       <c r="C70">
         <v>4.3750229999999997</v>
@@ -19221,11 +19259,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19251,7 +19289,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.6776649038156033</v>
+        <v>1.8086823016527784</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19987,11 +20025,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D48" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D49" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E48" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E49" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20147,9 +20185,28 @@
         <v>8.3571256623747106E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B49" s="58">
+        <v>72.680000000000007</v>
+      </c>
       <c r="C49">
         <v>64.713499999999996</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="29"/>
+        <v>7.9665000000000106</v>
+      </c>
+      <c r="E49" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12310414364854337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50">
+        <v>68.029499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7CE41-F320-46B9-827D-D27EC662ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28150FDF-8D25-48C7-888E-75EFFA6865C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -8929,7 +8929,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A379" sqref="A379"/>
+      <selection pane="bottomLeft" activeCell="A378" sqref="A378:B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18465,9 +18465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19250,8 +19250,8 @@
       <c r="A71" s="1">
         <v>45306</v>
       </c>
-      <c r="B71" t="s">
-        <v>56</v>
+      <c r="B71">
+        <v>4.3523199999999997</v>
       </c>
       <c r="C71">
         <v>4.3817259999999996</v>
@@ -19299,7 +19299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28150FDF-8D25-48C7-888E-75EFFA6865C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E0DBE-0203-44D2-BE21-BEB4485CC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.1497394517826178E-3</v>
+        <v>5.4361682241296115E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D104" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D106" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E104" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E106" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7775,8 +7775,46 @@
       </c>
     </row>
     <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B105">
+        <v>3.9921329999999999</v>
+      </c>
       <c r="C105">
         <v>3.9833229000000001</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="34"/>
+        <v>8.8100999999998209E-3</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B106">
+        <v>4.0355569999999998</v>
+      </c>
+      <c r="C106">
+        <v>4.0039926000000001</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="34"/>
+        <v>3.1564399999999715E-2</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="C107">
+        <v>4.0671153000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8925,11 +8963,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A378" sqref="A378:B378"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379:B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8959,7 +8997,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4709541159684654E-2</v>
+        <v>-1.4586225111348588E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16062,11 +16100,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D378" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D380" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E378" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E380" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16242,8 +16280,46 @@
       </c>
     </row>
     <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B379">
+        <v>4.3693900000000001</v>
+      </c>
       <c r="C379">
         <v>4.3339043000000004</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="87"/>
+        <v>3.5485699999999731E-2</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B380">
+        <v>4.3900199999999998</v>
+      </c>
+      <c r="C380">
+        <v>4.408188</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="87"/>
+        <v>-1.8168000000000184E-2</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="C381">
+        <v>4.4122440000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18467,7 +18543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19261,8 +19337,8 @@
       <c r="A72" s="1">
         <v>45307</v>
       </c>
-      <c r="B72" t="s">
-        <v>56</v>
+      <c r="B72">
+        <v>4.3693900000000001</v>
       </c>
       <c r="C72">
         <v>4.3715267000000004</v>
@@ -19272,8 +19348,8 @@
       <c r="A73" s="1">
         <v>45308</v>
       </c>
-      <c r="B73" t="s">
-        <v>56</v>
+      <c r="B73">
+        <v>4.3900199999999998</v>
       </c>
       <c r="C73">
         <v>4.3571977999999998</v>
@@ -19297,11 +19373,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19327,7 +19403,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.8630051118231299</v>
+        <v>2.0305186368496737</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20063,11 +20139,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D50" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D52" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E50" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E52" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20262,8 +20338,46 @@
       </c>
     </row>
     <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B51" s="58">
+        <v>72.400002000000001</v>
+      </c>
       <c r="C51">
         <v>66.271699999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="29"/>
+        <v>6.128302000000005</v>
+      </c>
+      <c r="E51" s="56">
+        <f t="shared" si="30"/>
+        <v>9.2472382630896827E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B52" s="58">
+        <v>72.559997999999993</v>
+      </c>
+      <c r="C52">
+        <v>66.4191</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>6.1408979999999929</v>
+      </c>
+      <c r="E52" s="56">
+        <f t="shared" si="30"/>
+        <v>9.245680835783672E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53">
+        <v>65.858599999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C497D-9B29-43C2-8F1E-C930113C66F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C602F08-F8AF-4EF0-B20B-D4668A17A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="9">
@@ -554,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +649,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18767,11 +18775,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19484,7 +19492,7 @@
         <v>4.3172812</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>45296</v>
       </c>
@@ -19495,7 +19503,7 @@
         <v>4.3904269999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>45299</v>
       </c>
@@ -19506,7 +19514,7 @@
         <v>4.4120216000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>45300</v>
       </c>
@@ -19517,7 +19525,7 @@
         <v>4.426336</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>45301</v>
       </c>
@@ -19528,7 +19536,7 @@
         <v>4.4373994000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>45302</v>
       </c>
@@ -19539,7 +19547,7 @@
         <v>4.4435086000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>45303</v>
       </c>
@@ -19550,7 +19558,7 @@
         <v>4.3750229999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>45306</v>
       </c>
@@ -19561,7 +19569,7 @@
         <v>4.3817259999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>45307</v>
       </c>
@@ -19572,7 +19580,7 @@
         <v>4.3715267000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>45308</v>
       </c>
@@ -19583,7 +19591,7 @@
         <v>4.3571977999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>45309</v>
       </c>
@@ -19594,7 +19602,7 @@
         <v>4.3386009999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>45310</v>
       </c>
@@ -19605,7 +19613,7 @@
         <v>4.3652819999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>45313</v>
       </c>
@@ -19616,7 +19624,7 @@
         <v>4.3526397000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>45314</v>
       </c>
@@ -19627,7 +19635,7 @@
         <v>4.3483890000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>45315</v>
       </c>
@@ -19638,7 +19646,7 @@
         <v>4.3440412999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>45316</v>
       </c>
@@ -19647,6 +19655,62 @@
       </c>
       <c r="C79">
         <v>4.3381733999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80">
+        <v>4.3316610000000004</v>
+      </c>
+      <c r="E80" s="59"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>4.3475390000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>4.3583464999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>4.3781330000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <v>4.3906774999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19658,7 +19722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C602F08-F8AF-4EF0-B20B-D4668A17A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A3607-022D-452D-ACD6-800F3E319D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.1384348066090849E-3</v>
+        <v>4.7226318172643644E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D112" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D113" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E112" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E113" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7920,23 +7920,42 @@
         <v>45316</v>
       </c>
       <c r="B112">
-        <v>4.0084749999999998</v>
+        <v>4.0402399999999998</v>
       </c>
       <c r="C112">
         <v>3.9488927999999999</v>
       </c>
       <c r="D112">
         <f t="shared" si="36"/>
-        <v>5.9582199999999919E-2</v>
+        <v>9.1347199999999962E-2</v>
       </c>
       <c r="E112">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B113">
+        <v>4.0238300000000002</v>
+      </c>
       <c r="C113">
         <v>3.9860264999999999</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="36"/>
+        <v>3.7803500000000323E-2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="C114">
+        <v>3.9802213000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9085,11 +9104,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386:B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9119,7 +9138,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4550530953769129E-2</v>
+        <v>-1.4382017402075427E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16511,7 +16530,7 @@
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E386" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E387" si="89">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16554,8 +16573,27 @@
       </c>
     </row>
     <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B387">
+        <v>4.3784700000000001</v>
+      </c>
       <c r="C387">
         <v>4.3279743000000002</v>
+      </c>
+      <c r="D387">
+        <f>B387-C387</f>
+        <v>5.0495699999999921E-2</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="C388">
+        <v>4.3270600000000004</v>
       </c>
     </row>
   </sheetData>
@@ -18778,8 +18816,8 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19650,8 +19688,8 @@
       <c r="A79" s="1">
         <v>45316</v>
       </c>
-      <c r="B79" t="s">
-        <v>56</v>
+      <c r="B79">
+        <v>4.3606199999999999</v>
       </c>
       <c r="C79">
         <v>4.3381733999999996</v>
@@ -19659,10 +19697,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
+        <v>45317</v>
+      </c>
+      <c r="B80">
+        <v>4.3784700000000001</v>
       </c>
       <c r="C80">
         <v>4.3316610000000004</v>
@@ -19720,11 +19758,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19750,7 +19788,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.5515817277076023</v>
+        <v>2.713044146195402</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20486,11 +20524,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D58" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D59" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E58" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E59" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20837,8 +20875,27 @@
       </c>
     </row>
     <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B59" s="58">
+        <v>78.010002</v>
+      </c>
       <c r="C59">
         <v>66.093599999999995</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="29"/>
+        <v>11.916402000000005</v>
+      </c>
+      <c r="E59" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18029585315370938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="C60">
+        <v>63.887599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3402E3-2322-429F-B179-D55AD57FA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A484390-E2A5-4D49-A70A-5D3E42C80368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>5.0337474648991937E-3</v>
+        <v>5.1388935397684967E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D114" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D115" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E114" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E115" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7973,8 +7973,27 @@
       </c>
     </row>
     <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B115">
+        <v>4.0293599999999996</v>
+      </c>
       <c r="C115">
         <v>4.0123395999999998</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="36"/>
+        <v>1.7020399999999825E-2</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="C116">
+        <v>4.0669255</v>
       </c>
     </row>
   </sheetData>
@@ -9123,11 +9142,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
+      <selection pane="bottomLeft" activeCell="A389" sqref="A389:B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9157,7 +9176,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4245500561243192E-2</v>
+        <v>-1.417097349794102E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16549,7 +16568,7 @@
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E388" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E389" si="89">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16630,8 +16649,27 @@
       </c>
     </row>
     <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B389">
+        <v>4.3646399999999996</v>
+      </c>
       <c r="C389">
         <v>4.3499689999999998</v>
+      </c>
+      <c r="D389">
+        <f>B389-C389</f>
+        <v>1.4670999999999879E-2</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="C390">
+        <v>4.3967400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18853,9 +18891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19760,8 +19798,8 @@
       <c r="A82" s="1">
         <v>45321</v>
       </c>
-      <c r="B82" t="s">
-        <v>56</v>
+      <c r="B82">
+        <v>4.3646399999999996</v>
       </c>
       <c r="C82">
         <v>4.3583464999999997</v>
@@ -19798,7 +19836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
@@ -19826,7 +19864,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.8855755843954802</v>
+        <v>3.0203193246555551</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20562,11 +20600,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D60" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D61" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E60" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E61" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20951,8 +20989,22 @@
       </c>
     </row>
     <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B61" s="58">
+        <v>77.819999999999993</v>
+      </c>
       <c r="C61">
         <v>66.849800000000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="29"/>
+        <v>10.970199999999991</v>
+      </c>
+      <c r="E61" s="56">
+        <f t="shared" si="30"/>
+        <v>0.16410221122576268</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A484390-E2A5-4D49-A70A-5D3E42C80368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4C4FC-1457-48D6-8610-485C973210E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>5.1388935397684967E-3</v>
+        <v>4.5972901176835551E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D115" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D116" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E115" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E116" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7992,8 +7992,27 @@
       </c>
     </row>
     <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B116">
+        <v>4.0097800000000001</v>
+      </c>
       <c r="C116">
         <v>4.0669255</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="36"/>
+        <v>-5.7145499999999849E-2</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="C117">
+        <v>4.010141</v>
       </c>
     </row>
   </sheetData>
@@ -9142,11 +9161,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A389" sqref="A389:B389"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390:B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9176,7 +9195,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.417097349794102E-2</v>
+        <v>-1.4260302614912896E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16564,11 +16583,11 @@
         <v>4.3492259999999998</v>
       </c>
       <c r="D384">
-        <f>B384-C384</f>
+        <f t="shared" ref="D384:D389" si="89">B384-C384</f>
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E389" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E389" si="90">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16583,11 +16602,11 @@
         <v>4.3665419999999999</v>
       </c>
       <c r="D385">
-        <f>B385-C385</f>
+        <f t="shared" si="89"/>
         <v>-5.9219999999999828E-3</v>
       </c>
       <c r="E385">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
     </row>
@@ -16602,11 +16621,11 @@
         <v>4.3465214000000003</v>
       </c>
       <c r="D386">
-        <f>B386-C386</f>
+        <f t="shared" si="89"/>
         <v>1.4098599999999628E-2</v>
       </c>
       <c r="E386">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16621,11 +16640,11 @@
         <v>4.3279743000000002</v>
       </c>
       <c r="D387">
-        <f>B387-C387</f>
+        <f t="shared" si="89"/>
         <v>5.0495699999999921E-2</v>
       </c>
       <c r="E387">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16640,11 +16659,11 @@
         <v>4.3270600000000004</v>
       </c>
       <c r="D388">
-        <f>B388-C388</f>
+        <f t="shared" si="89"/>
         <v>3.8449999999999207E-2</v>
       </c>
       <c r="E388">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16659,17 +16678,36 @@
         <v>4.3499689999999998</v>
       </c>
       <c r="D389">
-        <f>B389-C389</f>
+        <f t="shared" si="89"/>
         <v>1.4670999999999879E-2</v>
       </c>
       <c r="E389">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B390">
+        <v>4.3478199999999996</v>
+      </c>
       <c r="C390">
         <v>4.3967400000000003</v>
+      </c>
+      <c r="D390">
+        <f t="shared" ref="D390" si="91">B390-C390</f>
+        <v>-4.8920000000000741E-2</v>
+      </c>
+      <c r="E390">
+        <f t="shared" ref="E390" si="92">IF(D390&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="C391">
+        <v>4.3474975000000002</v>
       </c>
     </row>
   </sheetData>
@@ -18893,7 +18931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:B82"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19809,8 +19847,8 @@
       <c r="A83" s="1">
         <v>45322</v>
       </c>
-      <c r="B83" t="s">
-        <v>56</v>
+      <c r="B83">
+        <v>4.3478199999999996</v>
       </c>
       <c r="C83">
         <v>4.3781330000000001</v>
@@ -19834,11 +19872,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19864,7 +19902,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.0203193246555551</v>
+        <v>3.1596697947431687</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20600,11 +20638,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D61" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D62" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E61" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E62" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21005,6 +21043,30 @@
       <c r="E61" s="56">
         <f t="shared" si="30"/>
         <v>0.16410221122576268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B62" s="58">
+        <v>75.849997999999999</v>
+      </c>
+      <c r="C62">
+        <v>64.329300000000003</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="29"/>
+        <v>11.520697999999996</v>
+      </c>
+      <c r="E62" s="56">
+        <f t="shared" si="30"/>
+        <v>0.17908943514075226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="C63">
+        <v>68.714299999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BA174-77D0-4CFF-BC7B-F656420AA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2A5D8B-5919-4D90-B34C-931FEE9356C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -18965,11 +18965,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:B83"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19903,6 +19903,61 @@
         <v>4.3906774999999998</v>
       </c>
     </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>4.3475099999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>4.3577886000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87">
+        <v>4.3528894999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>4.3510346000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89">
+        <v>4.3377175000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19912,7 +19967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2A5D8B-5919-4D90-B34C-931FEE9356C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F52C908-86A6-4A84-B1B6-0313BA4F16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.5075807201173162E-3</v>
+        <v>4.2786013977231521E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D117" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D118" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E117" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E118" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8030,8 +8030,27 @@
       </c>
     </row>
     <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B118">
+        <v>3.967492</v>
+      </c>
       <c r="C118">
         <v>3.9897749999999998</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="36"/>
+        <v>-2.2282999999999831E-2</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="C119">
+        <v>3.9436947999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9180,11 +9199,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C393" sqref="C393"/>
+      <selection pane="bottomLeft" activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9214,7 +9233,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4279013377438761E-2</v>
+        <v>-1.4240338151409503E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16716,11 +16735,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D391" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D392" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E391" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E392" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16744,8 +16763,27 @@
       </c>
     </row>
     <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B392">
+        <v>4.3143900000000004</v>
+      </c>
       <c r="C392">
         <v>4.3135469999999998</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="91"/>
+        <v>8.4300000000059327E-4</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="C393">
+        <v>4.2953095000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18967,9 +19005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:A89"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19896,8 +19934,8 @@
       <c r="A84" s="1">
         <v>45323</v>
       </c>
-      <c r="B84" t="s">
-        <v>56</v>
+      <c r="B84">
+        <v>4.3259400000000001</v>
       </c>
       <c r="C84">
         <v>4.3906774999999998</v>
@@ -19907,8 +19945,8 @@
       <c r="A85" s="1">
         <v>45324</v>
       </c>
-      <c r="B85" t="s">
-        <v>56</v>
+      <c r="B85">
+        <v>4.3143900000000004</v>
       </c>
       <c r="C85">
         <v>4.3475099999999998</v>
@@ -19965,11 +20003,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19995,7 +20033,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.1910573786989245</v>
+        <v>3.2036564520529098</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20731,11 +20769,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D63" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D64" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E63" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E64" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21177,8 +21215,27 @@
       </c>
     </row>
     <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B64" s="58">
+        <v>72.279999000000004</v>
+      </c>
       <c r="C64">
         <v>68.295199999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="29"/>
+        <v>3.9847990000000095</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="30"/>
+        <v>5.8346692007637577E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65">
+        <v>67.8018</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83063785-E7E8-4505-B102-FC488C4C79A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A879B-0C95-4FAA-95B0-9E24C889102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -9241,7 +9241,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394:B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19081,9 +19081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:B86"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20043,8 +20043,8 @@
       <c r="A87" s="1">
         <v>45328</v>
       </c>
-      <c r="B87" t="s">
-        <v>56</v>
+      <c r="B87">
+        <v>4.3383500000000002</v>
       </c>
       <c r="C87">
         <v>4.3528894999999999</v>
@@ -20081,7 +20081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A879B-0C95-4FAA-95B0-9E24C889102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D83813-7687-4172-89BF-A40E6F64BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.7792106179294904E-3</v>
+        <v>4.8822813627800755E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D120" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D121" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E120" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E121" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8087,8 +8087,27 @@
       </c>
     </row>
     <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B121">
+        <v>4.039231</v>
+      </c>
       <c r="C121">
         <v>4.0220833000000002</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="36"/>
+        <v>1.7147699999999766E-2</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="C122">
+        <v>4.0652714000000003</v>
       </c>
     </row>
   </sheetData>
@@ -9237,11 +9256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A394" sqref="A394:B394"/>
+      <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9271,7 +9290,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4122062893641514E-2</v>
+        <v>-1.4122411718784556E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16773,11 +16792,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D394" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D395" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E394" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E395" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16858,8 +16877,27 @@
       </c>
     </row>
     <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B395">
+        <v>4.3449</v>
+      </c>
       <c r="C395">
         <v>4.3591594999999996</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="91"/>
+        <v>-1.4259499999999647E-2</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="C396">
+        <v>4.3944089999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19081,9 +19119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20054,8 +20092,8 @@
       <c r="A88" s="1">
         <v>45329</v>
       </c>
-      <c r="B88" t="s">
-        <v>56</v>
+      <c r="B88">
+        <v>4.3449</v>
       </c>
       <c r="C88">
         <v>4.3510346000000002</v>
@@ -20079,11 +20117,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20109,7 +20147,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.2807562073743588</v>
+        <v>3.3246902193838381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20845,11 +20883,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D66" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D67" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E66" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E67" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21348,8 +21386,27 @@
       </c>
     </row>
     <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B67" s="58">
+        <v>73.860000999999997</v>
+      </c>
       <c r="C67">
         <v>67.679599999999994</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="29"/>
+        <v>6.1804010000000034</v>
+      </c>
+      <c r="E67" s="56">
+        <f t="shared" si="30"/>
+        <v>9.1318521386060253E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="C68">
+        <v>68.503799999999998</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF07E0-33BE-4446-9E09-482BE76597C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7144E-EC23-4594-9DFD-5933D6FFEEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -9560,7 +9560,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B411" sqref="B411"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410:B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4332693196090743E-2</v>
+        <v>-1.4230805407807596E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17329,11 +17329,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D410" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D411" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E410" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E411" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17493,8 +17493,22 @@
       </c>
     </row>
     <row r="411" spans="1:6">
+      <c r="A411" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B411">
+        <v>4.3154399999999997</v>
+      </c>
       <c r="C411">
         <v>4.2879987000000002</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="97"/>
+        <v>2.7441299999999558E-2</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19716,9 +19730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20854,8 +20868,8 @@
       <c r="A103" s="1">
         <v>45350</v>
       </c>
-      <c r="B103" t="s">
-        <v>56</v>
+      <c r="B103">
+        <v>4.3043399999999998</v>
       </c>
       <c r="C103">
         <v>4.3033146999999996</v>
@@ -20865,8 +20879,8 @@
       <c r="A104" s="1">
         <v>45351</v>
       </c>
-      <c r="B104" t="s">
-        <v>56</v>
+      <c r="B104">
+        <v>4.3154399999999997</v>
       </c>
       <c r="C104">
         <v>4.3039784000000001</v>
@@ -20881,7 +20895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7144E-EC23-4594-9DFD-5933D6FFEEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A456B-E166-4639-AE64-2484E30ABDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -244,10 +244,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -564,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +654,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9556,11 +9564,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410:B411"/>
+      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17509,6 +17517,12 @@
       <c r="E411">
         <f t="shared" si="98"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="C412">
+        <f>AVERAGE(C408:C411)</f>
+        <v>4.3236706749999998</v>
       </c>
     </row>
   </sheetData>
@@ -19731,24 +19745,25 @@
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="61"/>
+    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -19756,10 +19771,10 @@
       <c r="A2" s="1">
         <v>45205</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="61">
         <v>4.60107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19767,10 +19782,10 @@
       <c r="A3" s="1">
         <v>45208</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="61">
         <v>4.577</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19778,10 +19793,10 @@
       <c r="A4" s="1">
         <v>45209</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="61">
         <v>4.5590000000000002</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19789,10 +19804,10 @@
       <c r="A5" s="1">
         <v>45210</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="61">
         <v>4.5348899999999999</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19800,10 +19815,10 @@
       <c r="A6" s="1">
         <v>45211</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="61">
         <v>4.5254300000000001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19811,10 +19826,10 @@
       <c r="A7" s="1">
         <v>45212</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="61">
         <v>4.5385400000000002</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19822,10 +19837,10 @@
       <c r="A8" s="1">
         <v>45215</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="61">
         <v>4.4558</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19833,10 +19848,10 @@
       <c r="A9" s="1">
         <v>45216</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="61">
         <v>4.4485299999999999</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19844,10 +19859,10 @@
       <c r="A10" s="1">
         <v>45217</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="61">
         <v>4.4165000000000001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19855,10 +19870,10 @@
       <c r="A11" s="1">
         <v>45218</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="61">
         <v>4.4490999999999996</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19866,10 +19881,10 @@
       <c r="A12" s="1">
         <v>45219</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="61">
         <v>4.4508099999999997</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19877,10 +19892,10 @@
       <c r="A13" s="1">
         <v>45222</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="61">
         <v>4.4561500000000001</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19888,10 +19903,10 @@
       <c r="A14" s="1">
         <v>45223</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="61">
         <v>4.4586300000000003</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19899,10 +19914,10 @@
       <c r="A15" s="1">
         <v>45224</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="61">
         <v>4.4623400000000002</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19910,10 +19925,10 @@
       <c r="A16" s="1">
         <v>45225</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="61">
         <v>4.5049434000000002</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19921,10 +19936,10 @@
       <c r="A17" s="1">
         <v>45226</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="61">
         <v>4.4497799999999996</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19932,10 +19947,10 @@
       <c r="A18" s="1">
         <v>45229</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="61">
         <v>4.46157</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19943,10 +19958,10 @@
       <c r="A19" s="1">
         <v>45230</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="61">
         <v>4.4615099999999996</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19954,10 +19969,10 @@
       <c r="A20" s="1">
         <v>45231</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="61">
         <v>4.4443000000000001</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19965,10 +19980,10 @@
       <c r="A21" s="1">
         <v>45232</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="61">
         <v>4.4523000000000001</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19976,10 +19991,10 @@
       <c r="A22" s="1">
         <v>45233</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="61">
         <v>4.4676200000000001</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19987,10 +20002,10 @@
       <c r="A23" s="1">
         <v>45236</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="61">
         <v>4.4462700000000002</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19998,10 +20013,10 @@
       <c r="A24" s="1">
         <v>45237</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="61">
         <v>4.4508999999999999</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -20009,10 +20024,10 @@
       <c r="A25" s="1">
         <v>45238</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="61">
         <v>4.4533500000000004</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -20020,10 +20035,10 @@
       <c r="A26" s="1">
         <v>45239</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="61">
         <v>4.4374000000000002</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -20031,10 +20046,10 @@
       <c r="A27" s="1">
         <v>45240</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="61">
         <v>4.42964</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="61" t="s">
         <v>56</v>
       </c>
     </row>
@@ -20042,10 +20057,10 @@
       <c r="A28" s="1">
         <v>45243</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="61">
         <v>4.4203900000000003</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="61">
         <v>4.4397197000000004</v>
       </c>
     </row>
@@ -20053,10 +20068,10 @@
       <c r="A29" s="1">
         <v>45244</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="61">
         <v>4.4245599999999996</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="61">
         <v>4.4373930000000001</v>
       </c>
     </row>
@@ -20064,10 +20079,10 @@
       <c r="A30" s="1">
         <v>45245</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="61">
         <v>4.452108</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="61">
         <v>4.4453683000000002</v>
       </c>
     </row>
@@ -20075,10 +20090,10 @@
       <c r="A31" s="1">
         <v>45246</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="61">
         <v>4.3864000000000001</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="61">
         <v>4.4587025999999996</v>
       </c>
     </row>
@@ -20086,10 +20101,10 @@
       <c r="A32" s="1">
         <v>45247</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="61">
         <v>4.3706399999999999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="61">
         <v>4.4589353000000003</v>
       </c>
     </row>
@@ -20097,10 +20112,10 @@
       <c r="A33" s="1">
         <v>45250</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="61">
         <v>4.3820399999999999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="61">
         <v>4.4474134000000003</v>
       </c>
     </row>
@@ -20108,10 +20123,10 @@
       <c r="A34" s="1">
         <v>45251</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="61">
         <v>4.3441000000000001</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="61">
         <v>4.4604049999999997</v>
       </c>
     </row>
@@ -20119,10 +20134,10 @@
       <c r="A35" s="1">
         <v>45252</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="61">
         <v>4.3708999999999998</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="61">
         <v>4.4748210000000004</v>
       </c>
     </row>
@@ -20130,10 +20145,10 @@
       <c r="A36" s="1">
         <v>45253</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="61">
         <v>4.3617999999999997</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="61">
         <v>4.4819259999999996</v>
       </c>
     </row>
@@ -20141,10 +20156,10 @@
       <c r="A37" s="1">
         <v>45254</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="61">
         <v>4.3632</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="61">
         <v>4.4831490000000001</v>
       </c>
     </row>
@@ -20152,10 +20167,10 @@
       <c r="A38" s="1">
         <v>45257</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="61">
         <v>4.3606699999999998</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="61">
         <v>4.4254579999999999</v>
       </c>
     </row>
@@ -20163,10 +20178,10 @@
       <c r="A39" s="1">
         <v>45258</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="61">
         <v>4.3439300000000003</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="61">
         <v>4.4274306000000001</v>
       </c>
     </row>
@@ -20174,10 +20189,10 @@
       <c r="A40" s="1">
         <v>45259</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="61">
         <v>4.3176399999999999</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="61">
         <v>4.4089894000000003</v>
       </c>
     </row>
@@ -20185,10 +20200,10 @@
       <c r="A41" s="1">
         <v>45260</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="61">
         <v>4.3388200000000001</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="61">
         <v>4.3910555999999996</v>
       </c>
     </row>
@@ -20196,10 +20211,10 @@
       <c r="A42" s="1">
         <v>45261</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="61">
         <v>4.3503699999999998</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="61">
         <v>4.3848934000000002</v>
       </c>
     </row>
@@ -20207,10 +20222,10 @@
       <c r="A43" s="1">
         <v>45264</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="61">
         <v>4.3256899999999998</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="61">
         <v>4.3906660000000004</v>
       </c>
     </row>
@@ -20218,10 +20233,10 @@
       <c r="A44" s="1">
         <v>45265</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="61">
         <v>4.32761</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="61">
         <v>4.4073023999999998</v>
       </c>
     </row>
@@ -20229,10 +20244,10 @@
       <c r="A45" s="1">
         <v>45266</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="61">
         <v>4.3194900000000001</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="61">
         <v>4.4268093000000004</v>
       </c>
     </row>
@@ -20240,10 +20255,10 @@
       <c r="A46" s="1">
         <v>45267</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="61">
         <v>4.3272300000000001</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="61">
         <v>4.4315147000000001</v>
       </c>
     </row>
@@ -20251,10 +20266,10 @@
       <c r="A47" s="1">
         <v>45268</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="61">
         <v>4.3272300000000001</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="61">
         <v>4.4290289999999999</v>
       </c>
     </row>
@@ -20262,10 +20277,10 @@
       <c r="A48" s="1">
         <v>45271</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="61">
         <v>4.3254599999999996</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="61">
         <v>4.3779199999999996</v>
       </c>
     </row>
@@ -20273,10 +20288,10 @@
       <c r="A49" s="1">
         <v>45272</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="61">
         <v>4.3333000000000004</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="61">
         <v>4.3646349999999998</v>
       </c>
     </row>
@@ -20284,10 +20299,10 @@
       <c r="A50" s="1">
         <v>45273</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="61">
         <v>4.3245800000000001</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="61">
         <v>4.3486159999999998</v>
       </c>
     </row>
@@ -20295,10 +20310,10 @@
       <c r="A51" s="1">
         <v>45274</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="61">
         <v>4.2960099999999999</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="61">
         <v>4.3421702</v>
       </c>
     </row>
@@ -20306,10 +20321,10 @@
       <c r="A52" s="1">
         <v>45275</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="61">
         <v>4.3048000000000002</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="61">
         <v>4.3236184</v>
       </c>
     </row>
@@ -20317,10 +20332,10 @@
       <c r="A53" s="1">
         <v>45278</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="61">
         <v>4.3315799999999998</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="61">
         <v>4.3164369999999996</v>
       </c>
     </row>
@@ -20328,10 +20343,10 @@
       <c r="A54" s="1">
         <v>45279</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="61">
         <v>4.3197999999999999</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="61">
         <v>4.2986716999999999</v>
       </c>
     </row>
@@ -20339,10 +20354,10 @@
       <c r="A55" s="1">
         <v>45280</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="61">
         <v>4.32315</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="61">
         <v>4.2743950000000002</v>
       </c>
     </row>
@@ -20350,10 +20365,10 @@
       <c r="A56" s="1">
         <v>45281</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="61">
         <v>4.34213</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="61">
         <v>4.2607400000000002</v>
       </c>
     </row>
@@ -20361,10 +20376,10 @@
       <c r="A57" s="1">
         <v>45282</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="61">
         <v>4.3228</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="61">
         <v>4.2532515999999996</v>
       </c>
     </row>
@@ -20372,10 +20387,10 @@
       <c r="A58" s="1">
         <v>45286</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="61">
         <v>4.3332100000000002</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="61">
         <v>4.2502255</v>
       </c>
     </row>
@@ -20383,10 +20398,10 @@
       <c r="A59" s="1">
         <v>45287</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="61">
         <v>4.3247400000000003</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="61">
         <v>4.2410870000000003</v>
       </c>
     </row>
@@ -20394,10 +20409,10 @@
       <c r="A60" s="1">
         <v>45288</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="61">
         <v>4.3173000000000004</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="61">
         <v>4.2615129999999999</v>
       </c>
     </row>
@@ -20405,10 +20420,10 @@
       <c r="A61" s="1">
         <v>45289</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="61">
         <v>4.3335499999999998</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="61">
         <v>4.2706203</v>
       </c>
     </row>
@@ -20416,10 +20431,10 @@
       <c r="A62" s="1">
         <v>45293</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="61">
         <v>4.33988</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="61">
         <v>4.2816386</v>
       </c>
     </row>
@@ -20427,10 +20442,10 @@
       <c r="A63" s="1">
         <v>45294</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="61">
         <v>4.3661899999999996</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="61">
         <v>4.2987776000000002</v>
       </c>
     </row>
@@ -20438,10 +20453,10 @@
       <c r="A64" s="1">
         <v>45295</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="61">
         <v>4.3486000000000002</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="61">
         <v>4.3172812</v>
       </c>
     </row>
@@ -20449,10 +20464,10 @@
       <c r="A65" s="1">
         <v>45296</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="61">
         <v>4.3437999999999999</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="61">
         <v>4.3904269999999999</v>
       </c>
     </row>
@@ -20460,10 +20475,10 @@
       <c r="A66" s="1">
         <v>45299</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="61">
         <v>4.3431499999999996</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="61">
         <v>4.4120216000000001</v>
       </c>
     </row>
@@ -20471,10 +20486,10 @@
       <c r="A67" s="1">
         <v>45300</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="61">
         <v>4.3311999999999999</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="61">
         <v>4.426336</v>
       </c>
     </row>
@@ -20482,10 +20497,10 @@
       <c r="A68" s="1">
         <v>45301</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="61">
         <v>4.3430099999999996</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="61">
         <v>4.4373994000000003</v>
       </c>
     </row>
@@ -20493,10 +20508,10 @@
       <c r="A69" s="1">
         <v>45302</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="61">
         <v>4.3323</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="61">
         <v>4.4435086000000004</v>
       </c>
     </row>
@@ -20504,10 +20519,10 @@
       <c r="A70" s="1">
         <v>45303</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="61">
         <v>4.3518499999999998</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="61">
         <v>4.3750229999999997</v>
       </c>
     </row>
@@ -20515,10 +20530,10 @@
       <c r="A71" s="1">
         <v>45306</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="61">
         <v>4.3523199999999997</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="61">
         <v>4.3817259999999996</v>
       </c>
     </row>
@@ -20526,10 +20541,10 @@
       <c r="A72" s="1">
         <v>45307</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="61">
         <v>4.3693900000000001</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="61">
         <v>4.3715267000000004</v>
       </c>
     </row>
@@ -20537,10 +20552,10 @@
       <c r="A73" s="1">
         <v>45308</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="61">
         <v>4.3900199999999998</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="61">
         <v>4.3571977999999998</v>
       </c>
     </row>
@@ -20548,10 +20563,10 @@
       <c r="A74" s="1">
         <v>45309</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="61">
         <v>4.3937999999999997</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="61">
         <v>4.3386009999999997</v>
       </c>
     </row>
@@ -20559,10 +20574,10 @@
       <c r="A75" s="1">
         <v>45310</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="61">
         <v>4.3827100000000003</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="61">
         <v>4.3652819999999997</v>
       </c>
     </row>
@@ -20570,10 +20585,10 @@
       <c r="A76" s="1">
         <v>45313</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="61">
         <v>4.3518499999999998</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="61">
         <v>4.3526397000000001</v>
       </c>
     </row>
@@ -20581,10 +20596,10 @@
       <c r="A77" s="1">
         <v>45314</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="61">
         <v>4.3606199999999999</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="61">
         <v>4.3483890000000001</v>
       </c>
     </row>
@@ -20592,10 +20607,10 @@
       <c r="A78" s="1">
         <v>45315</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="61">
         <v>4.3606199999999999</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="61">
         <v>4.3440412999999998</v>
       </c>
     </row>
@@ -20603,10 +20618,10 @@
       <c r="A79" s="1">
         <v>45316</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="61">
         <v>4.3606199999999999</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="61">
         <v>4.3381733999999996</v>
       </c>
     </row>
@@ -20614,10 +20629,10 @@
       <c r="A80" s="1">
         <v>45317</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="61">
         <v>4.3784700000000001</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="61">
         <v>4.3316610000000004</v>
       </c>
       <c r="E80" s="59"/>
@@ -20626,10 +20641,10 @@
       <c r="A81" s="1">
         <v>45320</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="61">
         <v>4.3655099999999996</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="61">
         <v>4.3475390000000003</v>
       </c>
     </row>
@@ -20637,10 +20652,10 @@
       <c r="A82" s="1">
         <v>45321</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="61">
         <v>4.3646399999999996</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="61">
         <v>4.3583464999999997</v>
       </c>
     </row>
@@ -20648,10 +20663,10 @@
       <c r="A83" s="1">
         <v>45322</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="61">
         <v>4.3478199999999996</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="61">
         <v>4.3781330000000001</v>
       </c>
     </row>
@@ -20659,10 +20674,10 @@
       <c r="A84" s="1">
         <v>45323</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="61">
         <v>4.3259400000000001</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="61">
         <v>4.3906774999999998</v>
       </c>
     </row>
@@ -20670,10 +20685,10 @@
       <c r="A85" s="1">
         <v>45324</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="61">
         <v>4.3143900000000004</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="61">
         <v>4.3475099999999998</v>
       </c>
     </row>
@@ -20681,10 +20696,10 @@
       <c r="A86" s="1">
         <v>45327</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="61">
         <v>4.31271</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="61">
         <v>4.3577886000000001</v>
       </c>
     </row>
@@ -20692,10 +20707,10 @@
       <c r="A87" s="1">
         <v>45328</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="61">
         <v>4.3383500000000002</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="61">
         <v>4.3528894999999999</v>
       </c>
     </row>
@@ -20703,10 +20718,10 @@
       <c r="A88" s="1">
         <v>45329</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="61">
         <v>4.3449</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="61">
         <v>4.3510346000000002</v>
       </c>
     </row>
@@ -20714,10 +20729,10 @@
       <c r="A89" s="1">
         <v>45330</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="61">
         <v>4.3412800000000002</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="61">
         <v>4.3377175000000001</v>
       </c>
     </row>
@@ -20725,10 +20740,10 @@
       <c r="A90" s="1">
         <v>45331</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="61">
         <v>4.3489820000000003</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="61">
         <v>4.3596640000000004</v>
       </c>
     </row>
@@ -20736,10 +20751,10 @@
       <c r="A91" s="1">
         <v>45334</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="61">
         <v>4.3230700000000004</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="61">
         <v>4.3612045999999998</v>
       </c>
     </row>
@@ -20747,10 +20762,10 @@
       <c r="A92" s="1">
         <v>45335</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="61">
         <v>4.3221699999999998</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="61">
         <v>4.356179</v>
       </c>
     </row>
@@ -20758,10 +20773,10 @@
       <c r="A93" s="1">
         <v>45336</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="61">
         <v>4.3365200000000002</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="61">
         <v>4.3519936000000001</v>
       </c>
     </row>
@@ -20769,10 +20784,10 @@
       <c r="A94" s="1">
         <v>45337</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="61">
         <v>4.3385300000000004</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="61">
         <v>4.3406463000000004</v>
       </c>
     </row>
@@ -20780,10 +20795,10 @@
       <c r="A95" s="1">
         <v>45338</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="61">
         <v>4.3402000000000003</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="61">
         <v>4.3211874999999997</v>
       </c>
     </row>
@@ -20791,10 +20806,10 @@
       <c r="A96" s="1">
         <v>45341</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="61">
         <v>4.3365299999999998</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="61">
         <v>4.3091654999999998</v>
       </c>
     </row>
@@ -20802,10 +20817,10 @@
       <c r="A97" s="1">
         <v>45342</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="61">
         <v>4.3247</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="61">
         <v>4.2970160000000002</v>
       </c>
     </row>
@@ -20813,10 +20828,10 @@
       <c r="A98" s="1">
         <v>45343</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="61">
         <v>4.3125299999999998</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="61">
         <v>4.2957830000000001</v>
       </c>
     </row>
@@ -20824,10 +20839,10 @@
       <c r="A99" s="1">
         <v>45344</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="61">
         <v>4.3152999999999997</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="61">
         <v>4.2895380000000003</v>
       </c>
     </row>
@@ -20835,10 +20850,10 @@
       <c r="A100" s="1">
         <v>45345</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="61">
         <v>4.3214399999999999</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="61">
         <v>4.3074820000000003</v>
       </c>
     </row>
@@ -20846,10 +20861,10 @@
       <c r="A101" s="1">
         <v>45348</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="61">
         <v>4.3048400000000004</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="61">
         <v>4.3080907000000002</v>
       </c>
     </row>
@@ -20857,10 +20872,10 @@
       <c r="A102" s="1">
         <v>45349</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="61">
         <v>4.3086700000000002</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="61">
         <v>4.3042490000000004</v>
       </c>
     </row>
@@ -20868,10 +20883,10 @@
       <c r="A103" s="1">
         <v>45350</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="61">
         <v>4.3043399999999998</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="61">
         <v>4.3033146999999996</v>
       </c>
     </row>
@@ -20879,10 +20894,10 @@
       <c r="A104" s="1">
         <v>45351</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="61">
         <v>4.3154399999999997</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="61">
         <v>4.3039784000000001</v>
       </c>
     </row>
@@ -20893,7 +20908,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
@@ -20923,7 +20938,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.3820550553004125</v>
+        <v>4.4289556277967481</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22409,11 +22424,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D82" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D83" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E82" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E83" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22475,8 +22490,28 @@
       </c>
     </row>
     <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B83" s="58">
+        <v>78.260002</v>
+      </c>
       <c r="C83">
         <v>70.0321</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="31"/>
+        <v>8.2279020000000003</v>
+      </c>
+      <c r="E83" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11748758069513837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="C84">
+        <f>AVERAGE(C80:C83)</f>
+        <v>69.003074999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A456B-E166-4639-AE64-2484E30ABDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E04F631-A8A1-43FC-BC61-30304C8983FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Day + 5 Prediction</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
   <si>
     <t>4.4474134, 4.460405 , 4.474821 , 4.481926 , 4.483149</t>
@@ -5765,7 +5762,7 @@
         <v>3.4489389891378375E-3</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -9568,7 +9565,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
+      <selection pane="bottomLeft" activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17521,8 +17518,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="C412">
-        <f>AVERAGE(C408:C411)</f>
-        <v>4.3236706749999998</v>
+        <v>4.3197109999999999</v>
       </c>
     </row>
   </sheetData>
@@ -19725,12 +19721,12 @@
     </row>
     <row r="152" spans="4:7">
       <c r="G152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="4:7">
       <c r="G158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -19742,11 +19738,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19756,7 +19752,7 @@
     <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -19767,1139 +19763,930 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45205</v>
+        <v>45243</v>
       </c>
       <c r="B2" s="61">
-        <v>4.60107</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.4203900000000003</v>
+      </c>
+      <c r="C2" s="61">
+        <v>4.4397197000000004</v>
+      </c>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45208</v>
+        <v>45244</v>
       </c>
       <c r="B3" s="61">
-        <v>4.577</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4.4245599999999996</v>
+      </c>
+      <c r="C3" s="61">
+        <v>4.4373930000000001</v>
+      </c>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>45209</v>
+        <v>45245</v>
       </c>
       <c r="B4" s="61">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4.452108</v>
+      </c>
+      <c r="C4" s="61">
+        <v>4.4453683000000002</v>
+      </c>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>45210</v>
+        <v>45246</v>
       </c>
       <c r="B5" s="61">
-        <v>4.5348899999999999</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4.3864000000000001</v>
+      </c>
+      <c r="C5" s="61">
+        <v>4.4587025999999996</v>
+      </c>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>45211</v>
+        <v>45247</v>
       </c>
       <c r="B6" s="61">
-        <v>4.5254300000000001</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.3706399999999999</v>
+      </c>
+      <c r="C6" s="61">
+        <v>4.4589353000000003</v>
+      </c>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>45212</v>
+        <v>45250</v>
       </c>
       <c r="B7" s="61">
-        <v>4.5385400000000002</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.3820399999999999</v>
+      </c>
+      <c r="C7" s="61">
+        <v>4.4474134000000003</v>
+      </c>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>45215</v>
+        <v>45251</v>
       </c>
       <c r="B8" s="61">
-        <v>4.4558</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.3441000000000001</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.4604049999999997</v>
+      </c>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>45216</v>
+        <v>45252</v>
       </c>
       <c r="B9" s="61">
-        <v>4.4485299999999999</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4.3708999999999998</v>
+      </c>
+      <c r="C9" s="61">
+        <v>4.4748210000000004</v>
+      </c>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>45217</v>
+        <v>45253</v>
       </c>
       <c r="B10" s="61">
-        <v>4.4165000000000001</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>4.3617999999999997</v>
+      </c>
+      <c r="C10" s="61">
+        <v>4.4819259999999996</v>
+      </c>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>45218</v>
+        <v>45254</v>
       </c>
       <c r="B11" s="61">
-        <v>4.4490999999999996</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4.3632</v>
+      </c>
+      <c r="C11" s="61">
+        <v>4.4831490000000001</v>
+      </c>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>45219</v>
+        <v>45257</v>
       </c>
       <c r="B12" s="61">
-        <v>4.4508099999999997</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>4.3606699999999998</v>
+      </c>
+      <c r="C12" s="61">
+        <v>4.4254579999999999</v>
+      </c>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>45222</v>
+        <v>45258</v>
       </c>
       <c r="B13" s="61">
-        <v>4.4561500000000001</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>4.3439300000000003</v>
+      </c>
+      <c r="C13" s="61">
+        <v>4.4274306000000001</v>
+      </c>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>45223</v>
+        <v>45259</v>
       </c>
       <c r="B14" s="61">
-        <v>4.4586300000000003</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>4.3176399999999999</v>
+      </c>
+      <c r="C14" s="61">
+        <v>4.4089894000000003</v>
+      </c>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>45224</v>
+        <v>45260</v>
       </c>
       <c r="B15" s="61">
-        <v>4.4623400000000002</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>4.3388200000000001</v>
+      </c>
+      <c r="C15" s="61">
+        <v>4.3910555999999996</v>
+      </c>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>45225</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="61">
-        <v>4.5049434000000002</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>4.3503699999999998</v>
+      </c>
+      <c r="C16" s="61">
+        <v>4.3848934000000002</v>
+      </c>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>45226</v>
+        <v>45264</v>
       </c>
       <c r="B17" s="61">
-        <v>4.4497799999999996</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C17" s="61">
+        <v>4.3906660000000004</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>45229</v>
+        <v>45265</v>
       </c>
       <c r="B18" s="61">
-        <v>4.46157</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>4.32761</v>
+      </c>
+      <c r="C18" s="61">
+        <v>4.4073023999999998</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>45230</v>
+        <v>45266</v>
       </c>
       <c r="B19" s="61">
-        <v>4.4615099999999996</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>4.3194900000000001</v>
+      </c>
+      <c r="C19" s="61">
+        <v>4.4268093000000004</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>45231</v>
+        <v>45267</v>
       </c>
       <c r="B20" s="61">
-        <v>4.4443000000000001</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C20" s="61">
+        <v>4.4315147000000001</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>45232</v>
+        <v>45268</v>
       </c>
       <c r="B21" s="61">
-        <v>4.4523000000000001</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C21" s="61">
+        <v>4.4290289999999999</v>
+      </c>
+      <c r="D21" s="61"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>45233</v>
+        <v>45271</v>
       </c>
       <c r="B22" s="61">
-        <v>4.4676200000000001</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C22" s="61">
+        <v>4.3779199999999996</v>
+      </c>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>45236</v>
+        <v>45272</v>
       </c>
       <c r="B23" s="61">
-        <v>4.4462700000000002</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C23" s="61">
+        <v>4.3646349999999998</v>
+      </c>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>45237</v>
+        <v>45273</v>
       </c>
       <c r="B24" s="61">
-        <v>4.4508999999999999</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4.3245800000000001</v>
+      </c>
+      <c r="C24" s="61">
+        <v>4.3486159999999998</v>
+      </c>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>45238</v>
+        <v>45274</v>
       </c>
       <c r="B25" s="61">
-        <v>4.4533500000000004</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>4.2960099999999999</v>
+      </c>
+      <c r="C25" s="61">
+        <v>4.3421702</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>45239</v>
+        <v>45275</v>
       </c>
       <c r="B26" s="61">
-        <v>4.4374000000000002</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="C26" s="61">
+        <v>4.3236184</v>
+      </c>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>45240</v>
+        <v>45278</v>
       </c>
       <c r="B27" s="61">
-        <v>4.42964</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>4.3315799999999998</v>
+      </c>
+      <c r="C27" s="61">
+        <v>4.3164369999999996</v>
+      </c>
+      <c r="D27" s="61"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>45243</v>
+        <v>45279</v>
       </c>
       <c r="B28" s="61">
-        <v>4.4203900000000003</v>
+        <v>4.3197999999999999</v>
       </c>
       <c r="C28" s="61">
-        <v>4.4397197000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>4.2986716999999999</v>
+      </c>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>45244</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="61">
-        <v>4.4245599999999996</v>
+        <v>4.32315</v>
       </c>
       <c r="C29" s="61">
-        <v>4.4373930000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>4.2743950000000002</v>
+      </c>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>45245</v>
+        <v>45281</v>
       </c>
       <c r="B30" s="61">
-        <v>4.452108</v>
+        <v>4.34213</v>
       </c>
       <c r="C30" s="61">
-        <v>4.4453683000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>4.2607400000000002</v>
+      </c>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>45246</v>
+        <v>45282</v>
       </c>
       <c r="B31" s="61">
-        <v>4.3864000000000001</v>
+        <v>4.3228</v>
       </c>
       <c r="C31" s="61">
-        <v>4.4587025999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>4.2532515999999996</v>
+      </c>
+      <c r="D31" s="61"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>45247</v>
+        <v>45286</v>
       </c>
       <c r="B32" s="61">
-        <v>4.3706399999999999</v>
+        <v>4.3332100000000002</v>
       </c>
       <c r="C32" s="61">
-        <v>4.4589353000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>4.2502255</v>
+      </c>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>45250</v>
+        <v>45287</v>
       </c>
       <c r="B33" s="61">
-        <v>4.3820399999999999</v>
+        <v>4.3247400000000003</v>
       </c>
       <c r="C33" s="61">
-        <v>4.4474134000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>4.2410870000000003</v>
+      </c>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>45251</v>
+        <v>45288</v>
       </c>
       <c r="B34" s="61">
-        <v>4.3441000000000001</v>
+        <v>4.3173000000000004</v>
       </c>
       <c r="C34" s="61">
-        <v>4.4604049999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>4.2615129999999999</v>
+      </c>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>45252</v>
+        <v>45289</v>
       </c>
       <c r="B35" s="61">
-        <v>4.3708999999999998</v>
+        <v>4.3335499999999998</v>
       </c>
       <c r="C35" s="61">
-        <v>4.4748210000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>4.2706203</v>
+      </c>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>45253</v>
+        <v>45293</v>
       </c>
       <c r="B36" s="61">
-        <v>4.3617999999999997</v>
+        <v>4.33988</v>
       </c>
       <c r="C36" s="61">
-        <v>4.4819259999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4.2816386</v>
+      </c>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45294</v>
       </c>
       <c r="B37" s="61">
-        <v>4.3632</v>
+        <v>4.3661899999999996</v>
       </c>
       <c r="C37" s="61">
-        <v>4.4831490000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>4.2987776000000002</v>
+      </c>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45295</v>
       </c>
       <c r="B38" s="61">
-        <v>4.3606699999999998</v>
+        <v>4.3486000000000002</v>
       </c>
       <c r="C38" s="61">
-        <v>4.4254579999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>4.3172812</v>
+      </c>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>45258</v>
+        <v>45296</v>
       </c>
       <c r="B39" s="61">
-        <v>4.3439300000000003</v>
+        <v>4.3437999999999999</v>
       </c>
       <c r="C39" s="61">
-        <v>4.4274306000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>4.3904269999999999</v>
+      </c>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>45259</v>
+        <v>45299</v>
       </c>
       <c r="B40" s="61">
-        <v>4.3176399999999999</v>
+        <v>4.3431499999999996</v>
       </c>
       <c r="C40" s="61">
-        <v>4.4089894000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>4.4120216000000001</v>
+      </c>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>45260</v>
+        <v>45300</v>
       </c>
       <c r="B41" s="61">
-        <v>4.3388200000000001</v>
+        <v>4.3311999999999999</v>
       </c>
       <c r="C41" s="61">
-        <v>4.3910555999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>4.426336</v>
+      </c>
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>45261</v>
+        <v>45301</v>
       </c>
       <c r="B42" s="61">
-        <v>4.3503699999999998</v>
+        <v>4.3430099999999996</v>
       </c>
       <c r="C42" s="61">
-        <v>4.3848934000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>4.4373994000000003</v>
+      </c>
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>45264</v>
+        <v>45302</v>
       </c>
       <c r="B43" s="61">
-        <v>4.3256899999999998</v>
+        <v>4.3323</v>
       </c>
       <c r="C43" s="61">
-        <v>4.3906660000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>4.4435086000000004</v>
+      </c>
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>45265</v>
+        <v>45303</v>
       </c>
       <c r="B44" s="61">
-        <v>4.32761</v>
+        <v>4.3518499999999998</v>
       </c>
       <c r="C44" s="61">
-        <v>4.4073023999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>4.3750229999999997</v>
+      </c>
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>45266</v>
+        <v>45306</v>
       </c>
       <c r="B45" s="61">
-        <v>4.3194900000000001</v>
+        <v>4.3523199999999997</v>
       </c>
       <c r="C45" s="61">
-        <v>4.4268093000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>4.3817259999999996</v>
+      </c>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>45267</v>
+        <v>45307</v>
       </c>
       <c r="B46" s="61">
-        <v>4.3272300000000001</v>
+        <v>4.3693900000000001</v>
       </c>
       <c r="C46" s="61">
-        <v>4.4315147000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>4.3715267000000004</v>
+      </c>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45268</v>
+        <v>45308</v>
       </c>
       <c r="B47" s="61">
-        <v>4.3272300000000001</v>
+        <v>4.3900199999999998</v>
       </c>
       <c r="C47" s="61">
-        <v>4.4290289999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>4.3571977999999998</v>
+      </c>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>45271</v>
+        <v>45309</v>
       </c>
       <c r="B48" s="61">
-        <v>4.3254599999999996</v>
+        <v>4.3937999999999997</v>
       </c>
       <c r="C48" s="61">
-        <v>4.3779199999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>4.3386009999999997</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>45272</v>
+        <v>45310</v>
       </c>
       <c r="B49" s="61">
-        <v>4.3333000000000004</v>
+        <v>4.3827100000000003</v>
       </c>
       <c r="C49" s="61">
-        <v>4.3646349999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>4.3652819999999997</v>
+      </c>
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>45273</v>
+        <v>45313</v>
       </c>
       <c r="B50" s="61">
-        <v>4.3245800000000001</v>
+        <v>4.3518499999999998</v>
       </c>
       <c r="C50" s="61">
-        <v>4.3486159999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>4.3526397000000001</v>
+      </c>
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>45274</v>
+        <v>45314</v>
       </c>
       <c r="B51" s="61">
-        <v>4.2960099999999999</v>
+        <v>4.3606199999999999</v>
       </c>
       <c r="C51" s="61">
-        <v>4.3421702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>4.3483890000000001</v>
+      </c>
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>45275</v>
+        <v>45315</v>
       </c>
       <c r="B52" s="61">
-        <v>4.3048000000000002</v>
+        <v>4.3606199999999999</v>
       </c>
       <c r="C52" s="61">
-        <v>4.3236184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>4.3440412999999998</v>
+      </c>
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>45278</v>
+        <v>45316</v>
       </c>
       <c r="B53" s="61">
-        <v>4.3315799999999998</v>
+        <v>4.3606199999999999</v>
       </c>
       <c r="C53" s="61">
-        <v>4.3164369999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>4.3381733999999996</v>
+      </c>
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>45279</v>
+        <v>45317</v>
       </c>
       <c r="B54" s="61">
-        <v>4.3197999999999999</v>
+        <v>4.3784700000000001</v>
       </c>
       <c r="C54" s="61">
-        <v>4.2986716999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>4.3316610000000004</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="59"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>45280</v>
+        <v>45320</v>
       </c>
       <c r="B55" s="61">
-        <v>4.32315</v>
+        <v>4.3655099999999996</v>
       </c>
       <c r="C55" s="61">
-        <v>4.2743950000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>4.3475390000000003</v>
+      </c>
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>45281</v>
+        <v>45321</v>
       </c>
       <c r="B56" s="61">
-        <v>4.34213</v>
+        <v>4.3646399999999996</v>
       </c>
       <c r="C56" s="61">
-        <v>4.2607400000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>4.3583464999999997</v>
+      </c>
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>45282</v>
+        <v>45322</v>
       </c>
       <c r="B57" s="61">
-        <v>4.3228</v>
+        <v>4.3478199999999996</v>
       </c>
       <c r="C57" s="61">
-        <v>4.2532515999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>4.3781330000000001</v>
+      </c>
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>45286</v>
+        <v>45323</v>
       </c>
       <c r="B58" s="61">
-        <v>4.3332100000000002</v>
+        <v>4.3259400000000001</v>
       </c>
       <c r="C58" s="61">
-        <v>4.2502255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>4.3906774999999998</v>
+      </c>
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>45287</v>
+        <v>45324</v>
       </c>
       <c r="B59" s="61">
-        <v>4.3247400000000003</v>
+        <v>4.3143900000000004</v>
       </c>
       <c r="C59" s="61">
-        <v>4.2410870000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>4.3475099999999998</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>45288</v>
+        <v>45327</v>
       </c>
       <c r="B60" s="61">
-        <v>4.3173000000000004</v>
+        <v>4.31271</v>
       </c>
       <c r="C60" s="61">
-        <v>4.2615129999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>4.3577886000000001</v>
+      </c>
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>45289</v>
+        <v>45328</v>
       </c>
       <c r="B61" s="61">
-        <v>4.3335499999999998</v>
+        <v>4.3383500000000002</v>
       </c>
       <c r="C61" s="61">
-        <v>4.2706203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>4.3528894999999999</v>
+      </c>
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>45293</v>
+        <v>45329</v>
       </c>
       <c r="B62" s="61">
-        <v>4.33988</v>
+        <v>4.3449</v>
       </c>
       <c r="C62" s="61">
-        <v>4.2816386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>4.3510346000000002</v>
+      </c>
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>45294</v>
+        <v>45330</v>
       </c>
       <c r="B63" s="61">
-        <v>4.3661899999999996</v>
+        <v>4.3412800000000002</v>
       </c>
       <c r="C63" s="61">
-        <v>4.2987776000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>4.3377175000000001</v>
+      </c>
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>45295</v>
+        <v>45331</v>
       </c>
       <c r="B64" s="61">
-        <v>4.3486000000000002</v>
+        <v>4.3489820000000003</v>
       </c>
       <c r="C64" s="61">
-        <v>4.3172812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>4.3596640000000004</v>
+      </c>
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>45296</v>
+        <v>45334</v>
       </c>
       <c r="B65" s="61">
-        <v>4.3437999999999999</v>
+        <v>4.3230700000000004</v>
       </c>
       <c r="C65" s="61">
-        <v>4.3904269999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>4.3612045999999998</v>
+      </c>
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>45299</v>
+        <v>45335</v>
       </c>
       <c r="B66" s="61">
-        <v>4.3431499999999996</v>
+        <v>4.3221699999999998</v>
       </c>
       <c r="C66" s="61">
-        <v>4.4120216000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>4.356179</v>
+      </c>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>45300</v>
+        <v>45336</v>
       </c>
       <c r="B67" s="61">
-        <v>4.3311999999999999</v>
+        <v>4.3365200000000002</v>
       </c>
       <c r="C67" s="61">
-        <v>4.426336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>4.3519936000000001</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>45301</v>
+        <v>45337</v>
       </c>
       <c r="B68" s="61">
-        <v>4.3430099999999996</v>
+        <v>4.3385300000000004</v>
       </c>
       <c r="C68" s="61">
-        <v>4.4373994000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>4.3406463000000004</v>
+      </c>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>45302</v>
+        <v>45338</v>
       </c>
       <c r="B69" s="61">
-        <v>4.3323</v>
+        <v>4.3402000000000003</v>
       </c>
       <c r="C69" s="61">
-        <v>4.4435086000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>4.3211874999999997</v>
+      </c>
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>45303</v>
+        <v>45341</v>
       </c>
       <c r="B70" s="61">
-        <v>4.3518499999999998</v>
+        <v>4.3365299999999998</v>
       </c>
       <c r="C70" s="61">
-        <v>4.3750229999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>4.3091654999999998</v>
+      </c>
+      <c r="D70" s="61"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>45306</v>
+        <v>45342</v>
       </c>
       <c r="B71" s="61">
-        <v>4.3523199999999997</v>
+        <v>4.3247</v>
       </c>
       <c r="C71" s="61">
-        <v>4.3817259999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>4.2970160000000002</v>
+      </c>
+      <c r="D71" s="61"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>45307</v>
+        <v>45343</v>
       </c>
       <c r="B72" s="61">
-        <v>4.3693900000000001</v>
+        <v>4.3125299999999998</v>
       </c>
       <c r="C72" s="61">
-        <v>4.3715267000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>4.2957830000000001</v>
+      </c>
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>45308</v>
+        <v>45344</v>
       </c>
       <c r="B73" s="61">
-        <v>4.3900199999999998</v>
+        <v>4.3152999999999997</v>
       </c>
       <c r="C73" s="61">
-        <v>4.3571977999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>4.2895380000000003</v>
+      </c>
+      <c r="D73" s="61"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="B74" s="61">
-        <v>4.3937999999999997</v>
+        <v>4.3214399999999999</v>
       </c>
       <c r="C74" s="61">
-        <v>4.3386009999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>4.3074820000000003</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>45310</v>
+        <v>45348</v>
       </c>
       <c r="B75" s="61">
-        <v>4.3827100000000003</v>
+        <v>4.3048400000000004</v>
       </c>
       <c r="C75" s="61">
-        <v>4.3652819999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>4.3080907000000002</v>
+      </c>
+      <c r="D75" s="61"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>45313</v>
+        <v>45349</v>
       </c>
       <c r="B76" s="61">
-        <v>4.3518499999999998</v>
+        <v>4.3086700000000002</v>
       </c>
       <c r="C76" s="61">
-        <v>4.3526397000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>4.3042490000000004</v>
+      </c>
+      <c r="D76" s="61"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>45314</v>
+        <v>45350</v>
       </c>
       <c r="B77" s="61">
-        <v>4.3606199999999999</v>
+        <v>4.3043399999999998</v>
       </c>
       <c r="C77" s="61">
-        <v>4.3483890000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>4.3033146999999996</v>
+      </c>
+      <c r="D77" s="61"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>45315</v>
+        <v>45351</v>
       </c>
       <c r="B78" s="61">
-        <v>4.3606199999999999</v>
+        <v>4.3154399999999997</v>
       </c>
       <c r="C78" s="61">
-        <v>4.3440412999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B79" s="61">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C79" s="61">
-        <v>4.3381733999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B80" s="61">
-        <v>4.3784700000000001</v>
-      </c>
-      <c r="C80" s="61">
-        <v>4.3316610000000004</v>
-      </c>
-      <c r="E80" s="59"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B81" s="61">
-        <v>4.3655099999999996</v>
-      </c>
-      <c r="C81" s="61">
-        <v>4.3475390000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B82" s="61">
-        <v>4.3646399999999996</v>
-      </c>
-      <c r="C82" s="61">
-        <v>4.3583464999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B83" s="61">
-        <v>4.3478199999999996</v>
-      </c>
-      <c r="C83" s="61">
-        <v>4.3781330000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B84" s="61">
-        <v>4.3259400000000001</v>
-      </c>
-      <c r="C84" s="61">
-        <v>4.3906774999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B85" s="61">
-        <v>4.3143900000000004</v>
-      </c>
-      <c r="C85" s="61">
-        <v>4.3475099999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B86" s="61">
-        <v>4.31271</v>
-      </c>
-      <c r="C86" s="61">
-        <v>4.3577886000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B87" s="61">
-        <v>4.3383500000000002</v>
-      </c>
-      <c r="C87" s="61">
-        <v>4.3528894999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B88" s="61">
-        <v>4.3449</v>
-      </c>
-      <c r="C88" s="61">
-        <v>4.3510346000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B89" s="61">
-        <v>4.3412800000000002</v>
-      </c>
-      <c r="C89" s="61">
-        <v>4.3377175000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B90" s="61">
-        <v>4.3489820000000003</v>
-      </c>
-      <c r="C90" s="61">
-        <v>4.3596640000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B91" s="61">
-        <v>4.3230700000000004</v>
-      </c>
-      <c r="C91" s="61">
-        <v>4.3612045999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B92" s="61">
-        <v>4.3221699999999998</v>
-      </c>
-      <c r="C92" s="61">
-        <v>4.356179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B93" s="61">
-        <v>4.3365200000000002</v>
-      </c>
-      <c r="C93" s="61">
-        <v>4.3519936000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B94" s="61">
-        <v>4.3385300000000004</v>
-      </c>
-      <c r="C94" s="61">
-        <v>4.3406463000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B95" s="61">
-        <v>4.3402000000000003</v>
-      </c>
-      <c r="C95" s="61">
-        <v>4.3211874999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B96" s="61">
-        <v>4.3365299999999998</v>
-      </c>
-      <c r="C96" s="61">
-        <v>4.3091654999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B97" s="61">
-        <v>4.3247</v>
-      </c>
-      <c r="C97" s="61">
-        <v>4.2970160000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B98" s="61">
-        <v>4.3125299999999998</v>
-      </c>
-      <c r="C98" s="61">
-        <v>4.2957830000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B99" s="61">
-        <v>4.3152999999999997</v>
-      </c>
-      <c r="C99" s="61">
-        <v>4.2895380000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B100" s="61">
-        <v>4.3214399999999999</v>
-      </c>
-      <c r="C100" s="61">
-        <v>4.3074820000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B101" s="61">
-        <v>4.3048400000000004</v>
-      </c>
-      <c r="C101" s="61">
-        <v>4.3080907000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B102" s="61">
-        <v>4.3086700000000002</v>
-      </c>
-      <c r="C102" s="61">
-        <v>4.3042490000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B103" s="61">
-        <v>4.3043399999999998</v>
-      </c>
-      <c r="C103" s="61">
-        <v>4.3033146999999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B104" s="61">
-        <v>4.3154399999999997</v>
-      </c>
-      <c r="C104" s="61">
         <v>4.3039784000000001</v>
       </c>
+      <c r="D78" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E04F631-A8A1-43FC-BC61-30304C8983FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17F017-86C5-4DCE-8A0E-34F4C5A3CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Day + 1 Pred. WT</t>
+  </si>
+  <si>
+    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -5725,7 +5728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
@@ -5759,7 +5762,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.4489389891378375E-3</v>
+        <v>3.7634526730412378E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8329,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D136" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D137" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E136" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E137" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8411,8 +8414,27 @@
       </c>
     </row>
     <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B137">
+        <v>3.9819070000000001</v>
+      </c>
       <c r="C137">
         <v>3.9356841999999999</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="40"/>
+        <v>4.622280000000023E-2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="C138">
+        <v>3.9804447000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9565,7 +9587,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C414" sqref="C414"/>
+      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19738,11 +19760,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20688,6 +20710,61 @@
       </c>
       <c r="D78" s="61"/>
     </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B79" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="61">
+        <v>4.3296950000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="61">
+        <v>4.3257294000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="61">
+        <v>4.3233509999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B82" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="61">
+        <v>4.3128924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="61">
+        <v>4.3122360000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20699,7 +20776,7 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22297,8 +22374,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="C84">
-        <f>AVERAGE(C80:C83)</f>
-        <v>69.003074999999995</v>
+        <v>71.138300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17F017-86C5-4DCE-8A0E-34F4C5A3CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1F8E3-E9D5-4322-A7B3-14F9397D3CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -19764,7 +19764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1F8E3-E9D5-4322-A7B3-14F9397D3CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC37715-0B9D-46CF-9EAC-DB409DEEBA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>Day + 1 Pred. WT</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -19764,7 +19761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20714,9 +20711,6 @@
       <c r="A79" s="1">
         <v>45352</v>
       </c>
-      <c r="B79" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C79" s="61">
         <v>4.3296950000000001</v>
       </c>
@@ -20725,9 +20719,6 @@
       <c r="A80" s="1">
         <v>45355</v>
       </c>
-      <c r="B80" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C80" s="61">
         <v>4.3257294000000002</v>
       </c>
@@ -20736,9 +20727,6 @@
       <c r="A81" s="1">
         <v>45356</v>
       </c>
-      <c r="B81" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
       </c>
@@ -20747,9 +20735,6 @@
       <c r="A82" s="1">
         <v>45357</v>
       </c>
-      <c r="B82" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C82" s="61">
         <v>4.3128924</v>
       </c>
@@ -20757,9 +20742,6 @@
     <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45358</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>59</v>
       </c>
       <c r="C83" s="61">
         <v>4.3122360000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC37715-0B9D-46CF-9EAC-DB409DEEBA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067333A9-9F26-413B-A20B-03A5693234AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Day + 1 Pred. WT</t>
+  </si>
+  <si>
+    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -19761,7 +19764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79:B83"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20711,6 +20714,9 @@
       <c r="A79" s="1">
         <v>45352</v>
       </c>
+      <c r="B79" s="61" t="s">
+        <v>59</v>
+      </c>
       <c r="C79" s="61">
         <v>4.3296950000000001</v>
       </c>
@@ -20719,6 +20725,9 @@
       <c r="A80" s="1">
         <v>45355</v>
       </c>
+      <c r="B80" s="61" t="s">
+        <v>59</v>
+      </c>
       <c r="C80" s="61">
         <v>4.3257294000000002</v>
       </c>
@@ -20727,6 +20736,9 @@
       <c r="A81" s="1">
         <v>45356</v>
       </c>
+      <c r="B81" s="61" t="s">
+        <v>59</v>
+      </c>
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
       </c>
@@ -20735,6 +20747,9 @@
       <c r="A82" s="1">
         <v>45357</v>
       </c>
+      <c r="B82" s="61" t="s">
+        <v>59</v>
+      </c>
       <c r="C82" s="61">
         <v>4.3128924</v>
       </c>
@@ -20742,6 +20757,9 @@
     <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45358</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="C83" s="61">
         <v>4.3122360000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067333A9-9F26-413B-A20B-03A5693234AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC98ED-4ABC-4A91-8533-BDFD3E4A50B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5728,11 +5728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.7634526730412378E-3</v>
+        <v>3.4302831908892654E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8329,11 +8329,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D137" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D140" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E137" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E140" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8433,8 +8433,65 @@
       </c>
     </row>
     <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B138">
+        <v>3.9904000000000002</v>
+      </c>
       <c r="C138">
         <v>3.9804447000000001</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="40"/>
+        <v>9.9553000000001113E-3</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B139">
+        <v>3.9802070000000001</v>
+      </c>
+      <c r="C139">
+        <v>3.9819255</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="40"/>
+        <v>-1.7184999999999562E-3</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B140">
+        <v>3.9790999999999999</v>
+      </c>
+      <c r="C140">
+        <v>4.0223570000000004</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="40"/>
+        <v>-4.3257000000000545E-2</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="C141">
+        <v>3.9988320000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9583,11 +9640,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
+      <selection pane="bottomLeft" activeCell="A414" sqref="A414:B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9617,7 +9674,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4230805407807596E-2</v>
+        <v>-1.4177999073126188E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17356,11 +17413,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D411" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D414" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E411" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E414" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17539,8 +17596,65 @@
       </c>
     </row>
     <row r="412" spans="1:6">
+      <c r="A412" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B412">
+        <v>4.31325</v>
+      </c>
       <c r="C412">
         <v>4.3197109999999999</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="97"/>
+        <v>-6.460999999999828E-3</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B413">
+        <v>4.3154399999999997</v>
+      </c>
+      <c r="C413">
+        <v>4.3373194000000002</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="97"/>
+        <v>-2.1879400000000437E-2</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B414">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="C414">
+        <v>4.3135430000000001</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="97"/>
+        <v>7.4569999999996028E-3</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="C415">
+        <v>4.2997899999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19760,11 +19874,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19772,6 +19886,7 @@
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="61"/>
     <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20714,8 +20829,8 @@
       <c r="A79" s="1">
         <v>45352</v>
       </c>
-      <c r="B79" s="61" t="s">
-        <v>59</v>
+      <c r="B79">
+        <v>4.31325</v>
       </c>
       <c r="C79" s="61">
         <v>4.3296950000000001</v>
@@ -20725,43 +20840,43 @@
       <c r="A80" s="1">
         <v>45355</v>
       </c>
-      <c r="B80" s="61" t="s">
-        <v>59</v>
+      <c r="B80">
+        <v>4.3154399999999997</v>
       </c>
       <c r="C80" s="61">
         <v>4.3257294000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>45356</v>
       </c>
-      <c r="B81" s="61" t="s">
-        <v>59</v>
+      <c r="B81">
+        <v>4.3209999999999997</v>
       </c>
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:7">
+      <c r="E82" s="1">
         <v>45357</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="F82" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="61">
+      <c r="G82" s="61">
         <v>4.3128924</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:7">
+      <c r="E83" s="1">
         <v>45358</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="F83" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="61">
+      <c r="G83" s="61">
         <v>4.3122360000000004</v>
       </c>
     </row>
@@ -20772,11 +20887,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20802,7 +20917,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.4289556277967481</v>
+        <v>4.584710146815687</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22288,11 +22403,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D83" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D86" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E83" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E86" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22373,8 +22488,65 @@
       </c>
     </row>
     <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B84" s="58">
+        <v>79.970000999999996</v>
+      </c>
       <c r="C84">
         <v>71.138300000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="31"/>
+        <v>8.8317009999999954</v>
+      </c>
+      <c r="E84" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12414832797522565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B85" s="58">
+        <v>78.739998</v>
+      </c>
+      <c r="C85">
+        <v>68.456599999999995</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="31"/>
+        <v>10.283398000000005</v>
+      </c>
+      <c r="E85" s="56">
+        <f t="shared" si="32"/>
+        <v>0.15021777301239042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B86" s="58">
+        <v>78.150002000000001</v>
+      </c>
+      <c r="C86">
+        <v>70.739099999999993</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="31"/>
+        <v>7.4109020000000072</v>
+      </c>
+      <c r="E86" s="56">
+        <f t="shared" si="32"/>
+        <v>0.1047638717484391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87">
+        <v>72.393000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC98ED-4ABC-4A91-8533-BDFD3E4A50B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A7668-C948-45E9-9105-734262A7905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
-    <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
+    <sheet name="D5+" sheetId="11" r:id="rId6"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
+    <sheet name="Normalization_example" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -19874,11 +19875,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20847,7 +20848,7 @@
         <v>4.3257294000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45356</v>
       </c>
@@ -20856,28 +20857,6 @@
       </c>
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="E82" s="1">
-        <v>45357</v>
-      </c>
-      <c r="F82" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="61">
-        <v>4.3128924</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="E83" s="1">
-        <v>45358</v>
-      </c>
-      <c r="F83" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="61">
-        <v>4.3122360000000004</v>
       </c>
     </row>
   </sheetData>
@@ -20886,6 +20865,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4544B7-25F2-4C4E-A9D4-7E28CB4DEDCA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="61">
+        <v>4.3128924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="61">
+        <v>4.3122360000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:F87"/>
   <sheetViews>
@@ -22554,7 +22585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
   <dimension ref="A1:E74"/>
   <sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A7668-C948-45E9-9105-734262A7905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECD4F3-F5D4-414D-B60B-7C78A4F136B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D5+" sheetId="11" r:id="rId6"/>
+    <sheet name="D+5_EUR" sheetId="12" r:id="rId6"/>
     <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Day + 1 Pred. WT</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -19878,8 +19875,8 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20865,49 +20862,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4544B7-25F2-4C4E-A9D4-7E28CB4DEDCA}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE201BB-F9A7-4AF6-BCC7-A2D10F391853}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4.3296950000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B3" s="61">
+        <v>4.3257294000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B4" s="61">
+        <v>4.3233509999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>45357</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="61">
+      <c r="B5" s="61">
         <v>4.3128924</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>45358</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="61">
+      <c r="B6" s="61">
         <v>4.3122360000000004</v>
       </c>
     </row>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECD4F3-F5D4-414D-B60B-7C78A4F136B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F215C63-983E-49FC-9849-38178519648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -19872,11 +19872,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:C81"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20856,6 +20856,22 @@
         <v>4.3233509999999997</v>
       </c>
     </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45357</v>
+      </c>
+      <c r="C82" s="61">
+        <v>4.3128924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45358</v>
+      </c>
+      <c r="C83" s="61">
+        <v>4.3122360000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20865,8 +20881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE201BB-F9A7-4AF6-BCC7-A2D10F391853}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D22917-228E-4B69-B9DA-E2B0E60B0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC8B83-2833-459D-80AB-2C3B5152650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5727,9 +5727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8421455178423067E-3</v>
+        <v>2.8766060386965584E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D143" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D144" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E143" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E144" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8544,8 +8544,22 @@
       </c>
     </row>
     <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B144">
+        <v>3.9311780000000001</v>
+      </c>
       <c r="C144">
         <v>3.9234079999999998</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="40"/>
+        <v>7.7700000000002767E-3</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9694,11 +9708,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C419" sqref="C419"/>
+      <selection pane="bottomLeft" activeCell="A418" sqref="A418:B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9728,7 +9742,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4200657252887298E-2</v>
+        <v>-1.4176489010074617E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17467,11 +17481,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D417" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D418" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E417" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E418" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17764,8 +17778,27 @@
       </c>
     </row>
     <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B418">
+        <v>4.3017700000000003</v>
+      </c>
       <c r="C418">
         <v>4.3058924999999997</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="97"/>
+        <v>-4.1224999999993628E-3</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="C419">
+        <v>4.2969739999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19987,9 +20020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21006,6 +21039,9 @@
       <c r="A85" s="1">
         <v>45362</v>
       </c>
+      <c r="B85">
+        <v>4.3017700000000003</v>
+      </c>
       <c r="C85" s="61">
         <v>4.3170896000000001</v>
       </c>
@@ -21041,11 +21077,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21071,7 +21107,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.6909586531742429</v>
+        <v>4.7236085559475658</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22557,11 +22593,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D89" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D90" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E89" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E90" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22756,8 +22792,27 @@
       </c>
     </row>
     <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B90" s="58">
+        <v>77.930000000000007</v>
+      </c>
       <c r="C90">
         <v>70.333200000000005</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="31"/>
+        <v>7.5968000000000018</v>
+      </c>
+      <c r="E90" s="56">
+        <f t="shared" si="32"/>
+        <v>0.10801157916887048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="C91">
+        <v>72.405699999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC8B83-2833-459D-80AB-2C3B5152650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2017AF9-536E-4B3E-BA4D-C4228A4E76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
     <sheet name="DX_USD" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId5"/>
+    <sheet name="D5_EUR" sheetId="9" r:id="rId6"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8766060386965584E-3</v>
+        <v>2.7054240523167214E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D144" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D145" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E144" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E145" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8560,6 +8560,30 @@
       <c r="E144">
         <f t="shared" si="41"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B145">
+        <v>3.9149479999999999</v>
+      </c>
+      <c r="C145">
+        <v>3.9367215999999998</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="40"/>
+        <v>-2.1773599999999949E-2</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="C146">
+        <v>3.9106562</v>
       </c>
     </row>
   </sheetData>
@@ -9712,7 +9736,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A418" sqref="A418:B418"/>
+      <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9742,7 +9766,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4176489010074617E-2</v>
+        <v>-1.4184640950241901E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17481,11 +17505,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D418" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D419" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E418" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E419" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17797,8 +17821,22 @@
       </c>
     </row>
     <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B419">
+        <v>4.2793900000000002</v>
+      </c>
       <c r="C419">
         <v>4.2969739999999996</v>
+      </c>
+      <c r="D419">
+        <f t="shared" si="97"/>
+        <v>-1.7583999999999378E-2</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20017,10 +20055,1769 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13">
+        <f>AVERAGE(D2:D301)</f>
+        <v>4.728393994214815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B2" s="58">
+        <v>82.459998999999996</v>
+      </c>
+      <c r="C2">
+        <v>79.287199999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2" si="0">B2-C2</f>
+        <v>3.1727989999999977</v>
+      </c>
+      <c r="E2" s="56">
+        <f t="shared" ref="E2" si="1">D2/C2</f>
+        <v>4.0016534825293333E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B3" s="58">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="C3">
+        <v>78.5989</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">B3-C3</f>
+        <v>2.2210999999999927</v>
+      </c>
+      <c r="E3" s="56">
+        <f t="shared" ref="E3" si="3">D3/C3</f>
+        <v>2.8258665197604456E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B4" s="58">
+        <v>77.370002999999997</v>
+      </c>
+      <c r="C4">
+        <v>79.054299999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4" si="4">B4-C4</f>
+        <v>-1.6842970000000008</v>
+      </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4" si="5">D4/C4</f>
+        <v>-2.1305570980958668E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B5" s="58">
+        <v>75.330001999999993</v>
+      </c>
+      <c r="C5" s="58">
+        <v>77.506699999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="6">B5-C5</f>
+        <v>-2.1766980000000018</v>
+      </c>
+      <c r="E5" s="56">
+        <f t="shared" ref="E5" si="7">D5/C5</f>
+        <v>-2.8083997899536452E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B6" s="58">
+        <v>75.739998</v>
+      </c>
+      <c r="C6">
+        <v>76.052700000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="8">B6-C6</f>
+        <v>-0.31270200000000159</v>
+      </c>
+      <c r="E6" s="56">
+        <f t="shared" ref="E6" si="9">D6/C6</f>
+        <v>-4.1116488960944398E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B7" s="58">
+        <v>77.169998000000007</v>
+      </c>
+      <c r="C7">
+        <v>75.321899999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="10">B7-C7</f>
+        <v>1.8480980000000073</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" ref="E7" si="11">D7/C7</f>
+        <v>2.4535998162553085E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B8" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C8">
+        <v>78.169200000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="12">B8-C8</f>
+        <v>9.0801999999996497E-2</v>
+      </c>
+      <c r="E8" s="56">
+        <f t="shared" ref="E8" si="13">D8/C8</f>
+        <v>1.1616084084268036E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B9" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C9">
+        <v>76.024100000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="14">B9-C9</f>
+        <v>2.2359019999999958</v>
+      </c>
+      <c r="E9" s="56">
+        <f t="shared" ref="E9" si="15">D9/C9</f>
+        <v>2.9410436953544939E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B10" s="58">
+        <v>76.660004000000001</v>
+      </c>
+      <c r="C10">
+        <v>74.524199999999993</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="16">B10-C10</f>
+        <v>2.1358040000000074</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" ref="E10" si="17">D10/C10</f>
+        <v>2.8659200635498368E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B11" s="58">
+        <v>72.900002000000001</v>
+      </c>
+      <c r="C11">
+        <v>75.210099999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="18">B11-C11</f>
+        <v>-2.3100979999999964</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" ref="E11" si="19">D11/C11</f>
+        <v>-3.0715262976648037E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B12" s="58">
+        <v>77.599997999999999</v>
+      </c>
+      <c r="C12">
+        <v>73.762</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="20">B12-C12</f>
+        <v>3.8379979999999989</v>
+      </c>
+      <c r="E12" s="56">
+        <f t="shared" ref="E12" si="21">D12/C12</f>
+        <v>5.2032184593693215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="58">
+        <v>77.769997000000004</v>
+      </c>
+      <c r="C13">
+        <v>75.093100000000007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="22">B13-C13</f>
+        <v>2.6768969999999968</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13" si="23">D13/C13</f>
+        <v>3.5647709310176252E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="58">
+        <v>77.099997999999999</v>
+      </c>
+      <c r="C14">
+        <v>72.002200000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
+        <v>5.0977979999999974</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
+        <v>7.0800586648741254E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B15" s="58">
+        <v>76.349997999999999</v>
+      </c>
+      <c r="C15">
+        <v>70.452699999999993</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="24"/>
+        <v>5.8972980000000064</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="25"/>
+        <v>8.3705777067451026E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B16" s="58">
+        <v>75.540001000000004</v>
+      </c>
+      <c r="C16">
+        <v>76.697699999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="26">B16-C16</f>
+        <v>-1.1576989999999938</v>
+      </c>
+      <c r="E16" s="56">
+        <f>D16/C16</f>
+        <v>-1.5094311824213684E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B17" s="58">
+        <v>74.860000999999997</v>
+      </c>
+      <c r="C17">
+        <v>75.922899999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17/C17</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B18" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C18">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="27"/>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D18/C18</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B19" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C19">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="27"/>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E19" s="56">
+        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B20" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C20">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="27"/>
+        <v>2.4330989999999986</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="28"/>
+        <v>3.30912767980154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B21" s="58">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="C21">
+        <v>75.0822</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="27"/>
+        <v>-1.0122000000000071</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.3481224577862758E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B22" s="58">
+        <v>73.040001000000004</v>
+      </c>
+      <c r="C22">
+        <v>71.261700000000005</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="27"/>
+        <v>1.778300999999999</v>
+      </c>
+      <c r="E22" s="56">
+        <f t="shared" si="28"/>
+        <v>2.4954512732645991E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B23" s="58">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="C23">
+        <v>73.881699999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="27"/>
+        <v>-1.5617000000000019</v>
+      </c>
+      <c r="E23" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.113784604306617E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B24" s="58">
+        <v>69.379997000000003</v>
+      </c>
+      <c r="C24">
+        <v>71.1126</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="27"/>
+        <v>-1.7326029999999975</v>
+      </c>
+      <c r="E24" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.436421956165289E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B25" s="58">
+        <v>69.339995999999999</v>
+      </c>
+      <c r="C25">
+        <v>73.859700000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="27"/>
+        <v>-4.5197040000000044</v>
+      </c>
+      <c r="E25" s="56">
+        <f t="shared" si="28"/>
+        <v>-6.1193099890738852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B26" s="58">
+        <v>71.23</v>
+      </c>
+      <c r="C26">
+        <v>71.077100000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="27"/>
+        <v>0.15290000000000248</v>
+      </c>
+      <c r="E26" s="56">
+        <f t="shared" si="28"/>
+        <v>2.1511851215089313E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B27" s="58">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="C27">
+        <v>68.771699999999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>2.5482999999999976</v>
+      </c>
+      <c r="E27" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7054486074940676E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B28" s="58">
+        <v>68.610000999999997</v>
+      </c>
+      <c r="C28">
+        <v>69.378200000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="27"/>
+        <v>-0.76819900000000985</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.1072628001303144E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B29" s="58">
+        <v>69.470000999999996</v>
+      </c>
+      <c r="C29">
+        <v>73.563900000000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>-4.0938990000000075</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="28"/>
+        <v>-5.5650923890658427E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B30" s="58">
+        <v>71.580001999999993</v>
+      </c>
+      <c r="C30">
+        <v>68.991600000000005</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>2.5884019999999879</v>
+      </c>
+      <c r="E30" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7517639828616639E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B31" s="58">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C31">
+        <v>68.003299999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="27"/>
+        <v>3.426700000000011</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="28"/>
+        <v>5.0390201651978821E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B32" s="58">
+        <v>72.470000999999996</v>
+      </c>
+      <c r="C32">
+        <v>70.312200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="27"/>
+        <v>2.1578009999999921</v>
+      </c>
+      <c r="E32" s="56">
+        <f t="shared" si="28"/>
+        <v>3.0688856272453314E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B33" s="58">
+        <v>73.580001999999993</v>
+      </c>
+      <c r="C33">
+        <v>66.346900000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="27"/>
+        <v>7.2331019999999882</v>
+      </c>
+      <c r="E33" s="56">
+        <f t="shared" si="28"/>
+        <v>0.10901944175236503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B34" s="58">
+        <v>73.440002000000007</v>
+      </c>
+      <c r="C34">
+        <v>71.343400000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>2.0966020000000043</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="28"/>
+        <v>2.9387469618773483E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B35" s="58">
+        <v>73.889999000000003</v>
+      </c>
+      <c r="C35">
+        <v>70.639300000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>3.2506989999999973</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="28"/>
+        <v>4.6018278776828153E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B36" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C36">
+        <v>71.102999999999994</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="27"/>
+        <v>2.4569979999999987</v>
+      </c>
+      <c r="E36" s="56">
+        <f t="shared" si="28"/>
+        <v>3.4555475858965144E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B37" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C37">
+        <v>67.181200000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>6.3787979999999891</v>
+      </c>
+      <c r="E37" s="56">
+        <f t="shared" si="28"/>
+        <v>9.4949152441456672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B38" s="58">
+        <v>74.110000999999997</v>
+      </c>
+      <c r="C38">
+        <v>67.802999999999997</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>6.3070009999999996</v>
+      </c>
+      <c r="E38" s="56">
+        <f t="shared" si="28"/>
+        <v>9.3019497662345324E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B39" s="58">
+        <v>71.769997000000004</v>
+      </c>
+      <c r="C39">
+        <v>68.910200000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="27"/>
+        <v>2.8597970000000004</v>
+      </c>
+      <c r="E39" s="56">
+        <f t="shared" si="28"/>
+        <v>4.1500343925862937E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B40" s="58">
+        <v>71.650002000000001</v>
+      </c>
+      <c r="C40">
+        <v>71.055977272727276</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D78" si="29">B40-C40</f>
+        <v>0.59402472727272482</v>
+      </c>
+      <c r="E40" s="56">
+        <f t="shared" ref="E40:E78" si="30">D40/C40</f>
+        <v>8.3599543637650243E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B41" s="58">
+        <v>70.379997000000003</v>
+      </c>
+      <c r="C41">
+        <v>70.808298966942161</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="29"/>
+        <v>-0.42830196694215772</v>
+      </c>
+      <c r="E41" s="56">
+        <f t="shared" si="30"/>
+        <v>-6.0487537928586091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="58">
+        <v>72.699996999999996</v>
+      </c>
+      <c r="C42">
+        <v>70.63700346543952</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="29"/>
+        <v>2.0629935345604764</v>
+      </c>
+      <c r="E42" s="56">
+        <f t="shared" si="30"/>
+        <v>2.9205564128577943E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="58">
+        <v>72.190002000000007</v>
+      </c>
+      <c r="C43">
+        <v>70.505644532050397</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="29"/>
+        <v>1.6843574679496101</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" si="30"/>
+        <v>2.3889682579725034E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B44" s="58">
+        <v>73.809997999999993</v>
+      </c>
+      <c r="C44">
+        <v>70.297619283507231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="29"/>
+        <v>3.512378716492762</v>
+      </c>
+      <c r="E44" s="56">
+        <f t="shared" si="30"/>
+        <v>4.9964404944177296E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B45" s="58">
+        <v>70.769997000000004</v>
+      </c>
+      <c r="C45">
+        <v>67.556899999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="29"/>
+        <v>3.2130970000000048</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="30"/>
+        <v>4.7561344585083161E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B46" s="58">
+        <v>72.239998</v>
+      </c>
+      <c r="C46">
+        <v>69.269099999999995</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="29"/>
+        <v>2.9708980000000054</v>
+      </c>
+      <c r="E46" s="56">
+        <f t="shared" si="30"/>
+        <v>4.2889224776992994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B47" s="58">
+        <v>71.370002999999997</v>
+      </c>
+      <c r="C47">
+        <v>67.362399999999994</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="29"/>
+        <v>4.0076030000000031</v>
+      </c>
+      <c r="E47" s="56">
+        <f t="shared" si="30"/>
+        <v>5.9493174233697189E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B48" s="58">
+        <v>72.019997000000004</v>
+      </c>
+      <c r="C48">
+        <v>66.465400000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="29"/>
+        <v>5.5545970000000011</v>
+      </c>
+      <c r="E48" s="56">
+        <f t="shared" si="30"/>
+        <v>8.3571256623747106E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B49" s="58">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="C49">
+        <v>64.713499999999996</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="29"/>
+        <v>7.9665000000000106</v>
+      </c>
+      <c r="E49" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12310414364854337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B50" s="58">
+        <v>72.5</v>
+      </c>
+      <c r="C50">
+        <v>68.029499999999999</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="29"/>
+        <v>4.4705000000000013</v>
+      </c>
+      <c r="E50" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5714138719232124E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B51" s="58">
+        <v>72.400002000000001</v>
+      </c>
+      <c r="C51">
+        <v>66.271699999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="29"/>
+        <v>6.128302000000005</v>
+      </c>
+      <c r="E51" s="56">
+        <f t="shared" si="30"/>
+        <v>9.2472382630896827E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B52" s="58">
+        <v>72.559997999999993</v>
+      </c>
+      <c r="C52">
+        <v>66.4191</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>6.1408979999999929</v>
+      </c>
+      <c r="E52" s="56">
+        <f t="shared" si="30"/>
+        <v>9.245680835783672E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B53" s="58">
+        <v>74.080001999999993</v>
+      </c>
+      <c r="C53">
+        <v>65.858599999999996</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="29"/>
+        <v>8.2214019999999977</v>
+      </c>
+      <c r="E53" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12483414466751493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B54" s="58">
+        <v>73.410004000000001</v>
+      </c>
+      <c r="C54">
+        <v>66.733699999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="29"/>
+        <v>6.6763040000000018</v>
+      </c>
+      <c r="E54" s="56">
+        <f t="shared" si="30"/>
+        <v>0.10004396579239577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B55" s="58">
+        <v>75.010002</v>
+      </c>
+      <c r="C55">
+        <v>73.060199999999995</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="29"/>
+        <v>1.9498020000000054</v>
+      </c>
+      <c r="E55" s="56">
+        <f t="shared" si="30"/>
+        <v>2.6687608301099716E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B56" s="58">
+        <v>74.370002999999997</v>
+      </c>
+      <c r="C56">
+        <v>66.487700000000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="29"/>
+        <v>7.8823029999999932</v>
+      </c>
+      <c r="E56" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11855279999157728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B57" s="58">
+        <v>75.089995999999999</v>
+      </c>
+      <c r="C57">
+        <v>69.870500000000007</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="29"/>
+        <v>5.2194959999999924</v>
+      </c>
+      <c r="E57" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4702428063345649E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B58" s="58">
+        <v>77.360000999999997</v>
+      </c>
+      <c r="C58">
+        <v>65.425600000000003</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="29"/>
+        <v>11.934400999999994</v>
+      </c>
+      <c r="E58" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18241179293732107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B59" s="58">
+        <v>78.010002</v>
+      </c>
+      <c r="C59">
+        <v>66.093599999999995</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="29"/>
+        <v>11.916402000000005</v>
+      </c>
+      <c r="E59" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18029585315370938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B60" s="58">
+        <v>76.779999000000004</v>
+      </c>
+      <c r="C60">
+        <v>63.887599999999999</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="29"/>
+        <v>12.892399000000005</v>
+      </c>
+      <c r="E60" s="56">
+        <f t="shared" si="30"/>
+        <v>0.20179814236252425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B61" s="58">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="C61">
+        <v>66.849800000000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="29"/>
+        <v>10.970199999999991</v>
+      </c>
+      <c r="E61" s="56">
+        <f t="shared" si="30"/>
+        <v>0.16410221122576268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B62" s="58">
+        <v>75.849997999999999</v>
+      </c>
+      <c r="C62">
+        <v>64.329300000000003</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="29"/>
+        <v>11.520697999999996</v>
+      </c>
+      <c r="E62" s="56">
+        <f t="shared" si="30"/>
+        <v>0.17908943514075226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B63" s="58">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="C63">
+        <v>68.714299999999994</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="29"/>
+        <v>5.1056999999999988</v>
+      </c>
+      <c r="E63" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4303310955652596E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B64" s="58">
+        <v>72.279999000000004</v>
+      </c>
+      <c r="C64">
+        <v>68.295199999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="29"/>
+        <v>3.9847990000000095</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="30"/>
+        <v>5.8346692007637577E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B65" s="58">
+        <v>72.779999000000004</v>
+      </c>
+      <c r="C65">
+        <v>67.8018</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="29"/>
+        <v>4.9781990000000036</v>
+      </c>
+      <c r="E65" s="56">
+        <f t="shared" si="30"/>
+        <v>7.3422814733532196E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B66" s="58">
+        <v>73.309997999999993</v>
+      </c>
+      <c r="C66">
+        <v>66.869399999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="29"/>
+        <v>6.4405979999999943</v>
+      </c>
+      <c r="E66" s="56">
+        <f t="shared" si="30"/>
+        <v>9.6316072822546547E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B67" s="58">
+        <v>73.860000999999997</v>
+      </c>
+      <c r="C67">
+        <v>67.679599999999994</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="29"/>
+        <v>6.1804010000000034</v>
+      </c>
+      <c r="E67" s="56">
+        <f t="shared" si="30"/>
+        <v>9.1318521386060253E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B68" s="58">
+        <v>76.220000999999996</v>
+      </c>
+      <c r="C68">
+        <v>68.503799999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="29"/>
+        <v>7.7162009999999981</v>
+      </c>
+      <c r="E68" s="56">
+        <f t="shared" si="30"/>
+        <v>0.1126390214849395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B69" s="58">
+        <v>76.839995999999999</v>
+      </c>
+      <c r="C69">
+        <v>68.205500000000001</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="29"/>
+        <v>8.6344959999999986</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12659530389777948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B70" s="58">
+        <v>76.919998000000007</v>
+      </c>
+      <c r="C70">
+        <v>68.694999999999993</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="29"/>
+        <v>8.2249980000000136</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11973212024164807</v>
+      </c>
+      <c r="F70">
+        <v>68.186099999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B71" s="58">
+        <v>77.870002999999997</v>
+      </c>
+      <c r="C71">
+        <v>67.919700000000006</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="29"/>
+        <v>9.950302999999991</v>
+      </c>
+      <c r="E71" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14650098572284609</v>
+      </c>
+      <c r="F71">
+        <v>67.919700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B72" s="58">
+        <v>76.639999000000003</v>
+      </c>
+      <c r="C72">
+        <v>66.243799999999993</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="29"/>
+        <v>10.39619900000001</v>
+      </c>
+      <c r="E72" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15693844556018843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B73" s="58">
+        <v>78.029999000000004</v>
+      </c>
+      <c r="C73">
+        <v>73.223399999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="29"/>
+        <v>4.8065990000000056</v>
+      </c>
+      <c r="E73" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5642936547606445E-2</v>
+      </c>
+      <c r="F73">
+        <v>73.223399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B74" s="58">
+        <v>79.190002000000007</v>
+      </c>
+      <c r="C74">
+        <v>70.859099999999998</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="29"/>
+        <v>8.3309020000000089</v>
+      </c>
+      <c r="E74" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11756996631343059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B75" s="58">
+        <v>79.290001000000004</v>
+      </c>
+      <c r="C75">
+        <v>68.477800000000002</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="29"/>
+        <v>10.812201000000002</v>
+      </c>
+      <c r="E75" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15789352169608253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B76" s="58">
+        <v>78.269997000000004</v>
+      </c>
+      <c r="C76">
+        <v>68.0334</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="29"/>
+        <v>10.236597000000003</v>
+      </c>
+      <c r="E76" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15046428665919978</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B77" s="58">
+        <v>77.910004000000001</v>
+      </c>
+      <c r="C77">
+        <v>67.810500000000005</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="29"/>
+        <v>10.099503999999996</v>
+      </c>
+      <c r="E77" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14893717049719432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B78" s="58">
+        <v>78.610000999999997</v>
+      </c>
+      <c r="C78">
+        <v>68.6648</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="29"/>
+        <v>9.9452009999999973</v>
+      </c>
+      <c r="E78" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14483696158730525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B79">
+        <v>76.489998</v>
+      </c>
+      <c r="C79">
+        <v>69.136099999999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D91" si="31">B79-C79</f>
+        <v>7.3538980000000009</v>
+      </c>
+      <c r="E79" s="56">
+        <f t="shared" ref="E79:E91" si="32">D79/C79</f>
+        <v>0.10636842402160378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B80" s="58">
+        <v>77.580001999999993</v>
+      </c>
+      <c r="C80">
+        <v>64.8416</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="31"/>
+        <v>12.738401999999994</v>
+      </c>
+      <c r="E80" s="56">
+        <f t="shared" si="32"/>
+        <v>0.19645415905838218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B81" s="58">
+        <v>78.870002999999997</v>
+      </c>
+      <c r="C81">
+        <v>69.340500000000006</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="31"/>
+        <v>9.5295029999999912</v>
+      </c>
+      <c r="E81" s="56">
+        <f t="shared" si="32"/>
+        <v>0.13743054924611145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B82" s="58">
+        <v>78.540001000000004</v>
+      </c>
+      <c r="C82">
+        <v>71.798100000000005</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="31"/>
+        <v>6.7419009999999986</v>
+      </c>
+      <c r="E82" s="56">
+        <f t="shared" si="32"/>
+        <v>9.390082745922243E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B83" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C83">
+        <v>70.0321</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="31"/>
+        <v>8.2279020000000003</v>
+      </c>
+      <c r="E83" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11748758069513837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B84" s="58">
+        <v>79.970000999999996</v>
+      </c>
+      <c r="C84">
+        <v>71.138300000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="31"/>
+        <v>8.8317009999999954</v>
+      </c>
+      <c r="E84" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12414832797522565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B85" s="58">
+        <v>78.739998</v>
+      </c>
+      <c r="C85">
+        <v>68.456599999999995</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="31"/>
+        <v>10.283398000000005</v>
+      </c>
+      <c r="E85" s="56">
+        <f t="shared" si="32"/>
+        <v>0.15021777301239042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B86" s="58">
+        <v>78.150002000000001</v>
+      </c>
+      <c r="C86">
+        <v>70.739099999999993</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="31"/>
+        <v>7.4109020000000072</v>
+      </c>
+      <c r="E86" s="56">
+        <f t="shared" si="32"/>
+        <v>0.1047638717484391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B87" s="58">
+        <v>79.129997000000003</v>
+      </c>
+      <c r="C87">
+        <v>72.393000000000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="31"/>
+        <v>6.7369970000000023</v>
+      </c>
+      <c r="E87" s="56">
+        <f t="shared" si="32"/>
+        <v>9.3061442404652417E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B88" s="58">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="C88">
+        <v>70.430300000000003</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="31"/>
+        <v>8.4997000000000043</v>
+      </c>
+      <c r="E88" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12068243355487629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B89" s="58">
+        <v>78.010002</v>
+      </c>
+      <c r="C89">
+        <v>70.142700000000005</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="31"/>
+        <v>7.8673019999999951</v>
+      </c>
+      <c r="E89" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11216137958761203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B90" s="58">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="C90">
+        <v>70.333200000000005</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="31"/>
+        <v>7.5968000000000018</v>
+      </c>
+      <c r="E90" s="56">
+        <f t="shared" si="32"/>
+        <v>0.10801157916887048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B91" s="58">
+        <v>77.559997999999993</v>
+      </c>
+      <c r="C91">
+        <v>72.405699999999996</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="31"/>
+        <v>5.1542979999999972</v>
+      </c>
+      <c r="E91" s="56">
+        <f t="shared" si="32"/>
+        <v>7.1186356875218348E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
@@ -21068,1751 +22865,6 @@
       </c>
       <c r="C88" s="61">
         <v>4.2963950000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F91"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13">
-        <f>AVERAGE(D2:D301)</f>
-        <v>4.7236085559475658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>45233</v>
-      </c>
-      <c r="B2" s="58">
-        <v>82.459998999999996</v>
-      </c>
-      <c r="C2">
-        <v>79.287199999999999</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2" si="0">B2-C2</f>
-        <v>3.1727989999999977</v>
-      </c>
-      <c r="E2" s="56">
-        <f t="shared" ref="E2" si="1">D2/C2</f>
-        <v>4.0016534825293333E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B3" s="58">
-        <v>80.819999999999993</v>
-      </c>
-      <c r="C3">
-        <v>78.5989</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3" si="2">B3-C3</f>
-        <v>2.2210999999999927</v>
-      </c>
-      <c r="E3" s="56">
-        <f t="shared" ref="E3" si="3">D3/C3</f>
-        <v>2.8258665197604456E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B4" s="58">
-        <v>77.370002999999997</v>
-      </c>
-      <c r="C4">
-        <v>79.054299999999998</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4" si="4">B4-C4</f>
-        <v>-1.6842970000000008</v>
-      </c>
-      <c r="E4" s="56">
-        <f t="shared" ref="E4" si="5">D4/C4</f>
-        <v>-2.1305570980958668E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B5" s="58">
-        <v>75.330001999999993</v>
-      </c>
-      <c r="C5" s="58">
-        <v>77.506699999999995</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5" si="6">B5-C5</f>
-        <v>-2.1766980000000018</v>
-      </c>
-      <c r="E5" s="56">
-        <f t="shared" ref="E5" si="7">D5/C5</f>
-        <v>-2.8083997899536452E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>45239</v>
-      </c>
-      <c r="B6" s="58">
-        <v>75.739998</v>
-      </c>
-      <c r="C6">
-        <v>76.052700000000002</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6" si="8">B6-C6</f>
-        <v>-0.31270200000000159</v>
-      </c>
-      <c r="E6" s="56">
-        <f t="shared" ref="E6" si="9">D6/C6</f>
-        <v>-4.1116488960944398E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45240</v>
-      </c>
-      <c r="B7" s="58">
-        <v>77.169998000000007</v>
-      </c>
-      <c r="C7">
-        <v>75.321899999999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7" si="10">B7-C7</f>
-        <v>1.8480980000000073</v>
-      </c>
-      <c r="E7" s="56">
-        <f t="shared" ref="E7" si="11">D7/C7</f>
-        <v>2.4535998162553085E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B8" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C8">
-        <v>78.169200000000004</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="12">B8-C8</f>
-        <v>9.0801999999996497E-2</v>
-      </c>
-      <c r="E8" s="56">
-        <f t="shared" ref="E8" si="13">D8/C8</f>
-        <v>1.1616084084268036E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B9" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C9">
-        <v>76.024100000000004</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9" si="14">B9-C9</f>
-        <v>2.2359019999999958</v>
-      </c>
-      <c r="E9" s="56">
-        <f t="shared" ref="E9" si="15">D9/C9</f>
-        <v>2.9410436953544939E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B10" s="58">
-        <v>76.660004000000001</v>
-      </c>
-      <c r="C10">
-        <v>74.524199999999993</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10" si="16">B10-C10</f>
-        <v>2.1358040000000074</v>
-      </c>
-      <c r="E10" s="56">
-        <f t="shared" ref="E10" si="17">D10/C10</f>
-        <v>2.8659200635498368E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B11" s="58">
-        <v>72.900002000000001</v>
-      </c>
-      <c r="C11">
-        <v>75.210099999999997</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11" si="18">B11-C11</f>
-        <v>-2.3100979999999964</v>
-      </c>
-      <c r="E11" s="56">
-        <f t="shared" ref="E11" si="19">D11/C11</f>
-        <v>-3.0715262976648037E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B12" s="58">
-        <v>77.599997999999999</v>
-      </c>
-      <c r="C12">
-        <v>73.762</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12" si="20">B12-C12</f>
-        <v>3.8379979999999989</v>
-      </c>
-      <c r="E12" s="56">
-        <f t="shared" ref="E12" si="21">D12/C12</f>
-        <v>5.2032184593693215E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B13" s="58">
-        <v>77.769997000000004</v>
-      </c>
-      <c r="C13">
-        <v>75.093100000000007</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13" si="22">B13-C13</f>
-        <v>2.6768969999999968</v>
-      </c>
-      <c r="E13" s="56">
-        <f t="shared" ref="E13" si="23">D13/C13</f>
-        <v>3.5647709310176252E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B14" s="58">
-        <v>77.099997999999999</v>
-      </c>
-      <c r="C14">
-        <v>72.002200000000002</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
-        <v>5.0977979999999974</v>
-      </c>
-      <c r="E14" s="56">
-        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
-        <v>7.0800586648741254E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B15" s="58">
-        <v>76.349997999999999</v>
-      </c>
-      <c r="C15">
-        <v>70.452699999999993</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="24"/>
-        <v>5.8972980000000064</v>
-      </c>
-      <c r="E15" s="56">
-        <f t="shared" si="25"/>
-        <v>8.3705777067451026E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B16" s="58">
-        <v>75.540001000000004</v>
-      </c>
-      <c r="C16">
-        <v>76.697699999999998</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="26">B16-C16</f>
-        <v>-1.1576989999999938</v>
-      </c>
-      <c r="E16" s="56">
-        <f>D16/C16</f>
-        <v>-1.5094311824213684E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B17" s="58">
-        <v>74.860000999999997</v>
-      </c>
-      <c r="C17">
-        <v>75.922899999999998</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
-        <v>-1.0628990000000016</v>
-      </c>
-      <c r="E17" s="56">
-        <f>D17/C17</f>
-        <v>-1.3999715500856812E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B18" s="58">
-        <v>76.410004000000001</v>
-      </c>
-      <c r="C18">
-        <v>76.504900000000006</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="27"/>
-        <v>-9.4896000000005643E-2</v>
-      </c>
-      <c r="E18" s="56">
-        <f>D18/C18</f>
-        <v>-1.2403911383454607E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B19" s="58">
-        <v>77.860000999999997</v>
-      </c>
-      <c r="C19">
-        <v>74.576800000000006</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="27"/>
-        <v>3.2832009999999912</v>
-      </c>
-      <c r="E19" s="56">
-        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
-        <v>4.4024428508597724E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B20" s="58">
-        <v>75.959998999999996</v>
-      </c>
-      <c r="C20">
-        <v>73.526899999999998</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="27"/>
-        <v>2.4330989999999986</v>
-      </c>
-      <c r="E20" s="56">
-        <f t="shared" si="28"/>
-        <v>3.30912767980154E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B21" s="58">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="C21">
-        <v>75.0822</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="27"/>
-        <v>-1.0122000000000071</v>
-      </c>
-      <c r="E21" s="56">
-        <f t="shared" si="28"/>
-        <v>-1.3481224577862758E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>45264</v>
-      </c>
-      <c r="B22" s="58">
-        <v>73.040001000000004</v>
-      </c>
-      <c r="C22">
-        <v>71.261700000000005</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="27"/>
-        <v>1.778300999999999</v>
-      </c>
-      <c r="E22" s="56">
-        <f t="shared" si="28"/>
-        <v>2.4954512732645991E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B23" s="58">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="C23">
-        <v>73.881699999999995</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="27"/>
-        <v>-1.5617000000000019</v>
-      </c>
-      <c r="E23" s="56">
-        <f t="shared" si="28"/>
-        <v>-2.113784604306617E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B24" s="58">
-        <v>69.379997000000003</v>
-      </c>
-      <c r="C24">
-        <v>71.1126</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="27"/>
-        <v>-1.7326029999999975</v>
-      </c>
-      <c r="E24" s="56">
-        <f t="shared" si="28"/>
-        <v>-2.436421956165289E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>45267</v>
-      </c>
-      <c r="B25" s="58">
-        <v>69.339995999999999</v>
-      </c>
-      <c r="C25">
-        <v>73.859700000000004</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="27"/>
-        <v>-4.5197040000000044</v>
-      </c>
-      <c r="E25" s="56">
-        <f t="shared" si="28"/>
-        <v>-6.1193099890738852E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B26" s="58">
-        <v>71.23</v>
-      </c>
-      <c r="C26">
-        <v>71.077100000000002</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="27"/>
-        <v>0.15290000000000248</v>
-      </c>
-      <c r="E26" s="56">
-        <f t="shared" si="28"/>
-        <v>2.1511851215089313E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B27" s="58">
-        <v>71.319999999999993</v>
-      </c>
-      <c r="C27">
-        <v>68.771699999999996</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="27"/>
-        <v>2.5482999999999976</v>
-      </c>
-      <c r="E27" s="56">
-        <f t="shared" si="28"/>
-        <v>3.7054486074940676E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>45272</v>
-      </c>
-      <c r="B28" s="58">
-        <v>68.610000999999997</v>
-      </c>
-      <c r="C28">
-        <v>69.378200000000007</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="27"/>
-        <v>-0.76819900000000985</v>
-      </c>
-      <c r="E28" s="56">
-        <f t="shared" si="28"/>
-        <v>-1.1072628001303144E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B29" s="58">
-        <v>69.470000999999996</v>
-      </c>
-      <c r="C29">
-        <v>73.563900000000004</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="27"/>
-        <v>-4.0938990000000075</v>
-      </c>
-      <c r="E29" s="56">
-        <f t="shared" si="28"/>
-        <v>-5.5650923890658427E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>45274</v>
-      </c>
-      <c r="B30" s="58">
-        <v>71.580001999999993</v>
-      </c>
-      <c r="C30">
-        <v>68.991600000000005</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="27"/>
-        <v>2.5884019999999879</v>
-      </c>
-      <c r="E30" s="56">
-        <f t="shared" si="28"/>
-        <v>3.7517639828616639E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B31" s="58">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="C31">
-        <v>68.003299999999996</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="27"/>
-        <v>3.426700000000011</v>
-      </c>
-      <c r="E31" s="56">
-        <f t="shared" si="28"/>
-        <v>5.0390201651978821E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B32" s="58">
-        <v>72.470000999999996</v>
-      </c>
-      <c r="C32">
-        <v>70.312200000000004</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="27"/>
-        <v>2.1578009999999921</v>
-      </c>
-      <c r="E32" s="56">
-        <f t="shared" si="28"/>
-        <v>3.0688856272453314E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B33" s="58">
-        <v>73.580001999999993</v>
-      </c>
-      <c r="C33">
-        <v>66.346900000000005</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="27"/>
-        <v>7.2331019999999882</v>
-      </c>
-      <c r="E33" s="56">
-        <f t="shared" si="28"/>
-        <v>0.10901944175236503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B34" s="58">
-        <v>73.440002000000007</v>
-      </c>
-      <c r="C34">
-        <v>71.343400000000003</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="27"/>
-        <v>2.0966020000000043</v>
-      </c>
-      <c r="E34" s="56">
-        <f t="shared" si="28"/>
-        <v>2.9387469618773483E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>45281</v>
-      </c>
-      <c r="B35" s="58">
-        <v>73.889999000000003</v>
-      </c>
-      <c r="C35">
-        <v>70.639300000000006</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="27"/>
-        <v>3.2506989999999973</v>
-      </c>
-      <c r="E35" s="56">
-        <f t="shared" si="28"/>
-        <v>4.6018278776828153E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B36" s="58">
-        <v>73.559997999999993</v>
-      </c>
-      <c r="C36">
-        <v>71.102999999999994</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="27"/>
-        <v>2.4569979999999987</v>
-      </c>
-      <c r="E36" s="56">
-        <f t="shared" si="28"/>
-        <v>3.4555475858965144E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B37" s="58">
-        <v>73.559997999999993</v>
-      </c>
-      <c r="C37">
-        <v>67.181200000000004</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="27"/>
-        <v>6.3787979999999891</v>
-      </c>
-      <c r="E37" s="56">
-        <f t="shared" si="28"/>
-        <v>9.4949152441456672E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>45287</v>
-      </c>
-      <c r="B38" s="58">
-        <v>74.110000999999997</v>
-      </c>
-      <c r="C38">
-        <v>67.802999999999997</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="27"/>
-        <v>6.3070009999999996</v>
-      </c>
-      <c r="E38" s="56">
-        <f t="shared" si="28"/>
-        <v>9.3019497662345324E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B39" s="58">
-        <v>71.769997000000004</v>
-      </c>
-      <c r="C39">
-        <v>68.910200000000003</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="27"/>
-        <v>2.8597970000000004</v>
-      </c>
-      <c r="E39" s="56">
-        <f t="shared" si="28"/>
-        <v>4.1500343925862937E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B40" s="58">
-        <v>71.650002000000001</v>
-      </c>
-      <c r="C40">
-        <v>71.055977272727276</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D78" si="29">B40-C40</f>
-        <v>0.59402472727272482</v>
-      </c>
-      <c r="E40" s="56">
-        <f t="shared" ref="E40:E78" si="30">D40/C40</f>
-        <v>8.3599543637650243E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>45293</v>
-      </c>
-      <c r="B41" s="58">
-        <v>70.379997000000003</v>
-      </c>
-      <c r="C41">
-        <v>70.808298966942161</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="29"/>
-        <v>-0.42830196694215772</v>
-      </c>
-      <c r="E41" s="56">
-        <f t="shared" si="30"/>
-        <v>-6.0487537928586091E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B42" s="58">
-        <v>72.699996999999996</v>
-      </c>
-      <c r="C42">
-        <v>70.63700346543952</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="29"/>
-        <v>2.0629935345604764</v>
-      </c>
-      <c r="E42" s="56">
-        <f t="shared" si="30"/>
-        <v>2.9205564128577943E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B43" s="58">
-        <v>72.190002000000007</v>
-      </c>
-      <c r="C43">
-        <v>70.505644532050397</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="29"/>
-        <v>1.6843574679496101</v>
-      </c>
-      <c r="E43" s="56">
-        <f t="shared" si="30"/>
-        <v>2.3889682579725034E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B44" s="58">
-        <v>73.809997999999993</v>
-      </c>
-      <c r="C44">
-        <v>70.297619283507231</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="29"/>
-        <v>3.512378716492762</v>
-      </c>
-      <c r="E44" s="56">
-        <f t="shared" si="30"/>
-        <v>4.9964404944177296E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B45" s="58">
-        <v>70.769997000000004</v>
-      </c>
-      <c r="C45">
-        <v>67.556899999999999</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="29"/>
-        <v>3.2130970000000048</v>
-      </c>
-      <c r="E45" s="56">
-        <f t="shared" si="30"/>
-        <v>4.7561344585083161E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>45300</v>
-      </c>
-      <c r="B46" s="58">
-        <v>72.239998</v>
-      </c>
-      <c r="C46">
-        <v>69.269099999999995</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="29"/>
-        <v>2.9708980000000054</v>
-      </c>
-      <c r="E46" s="56">
-        <f t="shared" si="30"/>
-        <v>4.2889224776992994E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B47" s="58">
-        <v>71.370002999999997</v>
-      </c>
-      <c r="C47">
-        <v>67.362399999999994</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="29"/>
-        <v>4.0076030000000031</v>
-      </c>
-      <c r="E47" s="56">
-        <f t="shared" si="30"/>
-        <v>5.9493174233697189E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B48" s="58">
-        <v>72.019997000000004</v>
-      </c>
-      <c r="C48">
-        <v>66.465400000000002</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="29"/>
-        <v>5.5545970000000011</v>
-      </c>
-      <c r="E48" s="56">
-        <f t="shared" si="30"/>
-        <v>8.3571256623747106E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B49" s="58">
-        <v>72.680000000000007</v>
-      </c>
-      <c r="C49">
-        <v>64.713499999999996</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="29"/>
-        <v>7.9665000000000106</v>
-      </c>
-      <c r="E49" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12310414364854337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B50" s="58">
-        <v>72.5</v>
-      </c>
-      <c r="C50">
-        <v>68.029499999999999</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="29"/>
-        <v>4.4705000000000013</v>
-      </c>
-      <c r="E50" s="56">
-        <f t="shared" si="30"/>
-        <v>6.5714138719232124E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B51" s="58">
-        <v>72.400002000000001</v>
-      </c>
-      <c r="C51">
-        <v>66.271699999999996</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="29"/>
-        <v>6.128302000000005</v>
-      </c>
-      <c r="E51" s="56">
-        <f t="shared" si="30"/>
-        <v>9.2472382630896827E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B52" s="58">
-        <v>72.559997999999993</v>
-      </c>
-      <c r="C52">
-        <v>66.4191</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="29"/>
-        <v>6.1408979999999929</v>
-      </c>
-      <c r="E52" s="56">
-        <f t="shared" si="30"/>
-        <v>9.245680835783672E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B53" s="58">
-        <v>74.080001999999993</v>
-      </c>
-      <c r="C53">
-        <v>65.858599999999996</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="29"/>
-        <v>8.2214019999999977</v>
-      </c>
-      <c r="E53" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12483414466751493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>45310</v>
-      </c>
-      <c r="B54" s="58">
-        <v>73.410004000000001</v>
-      </c>
-      <c r="C54">
-        <v>66.733699999999999</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="29"/>
-        <v>6.6763040000000018</v>
-      </c>
-      <c r="E54" s="56">
-        <f t="shared" si="30"/>
-        <v>0.10004396579239577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>45313</v>
-      </c>
-      <c r="B55" s="58">
-        <v>75.010002</v>
-      </c>
-      <c r="C55">
-        <v>73.060199999999995</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="29"/>
-        <v>1.9498020000000054</v>
-      </c>
-      <c r="E55" s="56">
-        <f t="shared" si="30"/>
-        <v>2.6687608301099716E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B56" s="58">
-        <v>74.370002999999997</v>
-      </c>
-      <c r="C56">
-        <v>66.487700000000004</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="29"/>
-        <v>7.8823029999999932</v>
-      </c>
-      <c r="E56" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11855279999157728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B57" s="58">
-        <v>75.089995999999999</v>
-      </c>
-      <c r="C57">
-        <v>69.870500000000007</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="29"/>
-        <v>5.2194959999999924</v>
-      </c>
-      <c r="E57" s="56">
-        <f t="shared" si="30"/>
-        <v>7.4702428063345649E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B58" s="58">
-        <v>77.360000999999997</v>
-      </c>
-      <c r="C58">
-        <v>65.425600000000003</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="29"/>
-        <v>11.934400999999994</v>
-      </c>
-      <c r="E58" s="56">
-        <f t="shared" si="30"/>
-        <v>0.18241179293732107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B59" s="58">
-        <v>78.010002</v>
-      </c>
-      <c r="C59">
-        <v>66.093599999999995</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="29"/>
-        <v>11.916402000000005</v>
-      </c>
-      <c r="E59" s="56">
-        <f t="shared" si="30"/>
-        <v>0.18029585315370938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B60" s="58">
-        <v>76.779999000000004</v>
-      </c>
-      <c r="C60">
-        <v>63.887599999999999</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="29"/>
-        <v>12.892399000000005</v>
-      </c>
-      <c r="E60" s="56">
-        <f t="shared" si="30"/>
-        <v>0.20179814236252425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B61" s="58">
-        <v>77.819999999999993</v>
-      </c>
-      <c r="C61">
-        <v>66.849800000000002</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="29"/>
-        <v>10.970199999999991</v>
-      </c>
-      <c r="E61" s="56">
-        <f t="shared" si="30"/>
-        <v>0.16410221122576268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B62" s="58">
-        <v>75.849997999999999</v>
-      </c>
-      <c r="C62">
-        <v>64.329300000000003</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="29"/>
-        <v>11.520697999999996</v>
-      </c>
-      <c r="E62" s="56">
-        <f t="shared" si="30"/>
-        <v>0.17908943514075226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B63" s="58">
-        <v>73.819999999999993</v>
-      </c>
-      <c r="C63">
-        <v>68.714299999999994</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="29"/>
-        <v>5.1056999999999988</v>
-      </c>
-      <c r="E63" s="56">
-        <f t="shared" si="30"/>
-        <v>7.4303310955652596E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B64" s="58">
-        <v>72.279999000000004</v>
-      </c>
-      <c r="C64">
-        <v>68.295199999999994</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="29"/>
-        <v>3.9847990000000095</v>
-      </c>
-      <c r="E64" s="56">
-        <f t="shared" si="30"/>
-        <v>5.8346692007637577E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B65" s="58">
-        <v>72.779999000000004</v>
-      </c>
-      <c r="C65">
-        <v>67.8018</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="29"/>
-        <v>4.9781990000000036</v>
-      </c>
-      <c r="E65" s="56">
-        <f t="shared" si="30"/>
-        <v>7.3422814733532196E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B66" s="58">
-        <v>73.309997999999993</v>
-      </c>
-      <c r="C66">
-        <v>66.869399999999999</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="29"/>
-        <v>6.4405979999999943</v>
-      </c>
-      <c r="E66" s="56">
-        <f t="shared" si="30"/>
-        <v>9.6316072822546547E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B67" s="58">
-        <v>73.860000999999997</v>
-      </c>
-      <c r="C67">
-        <v>67.679599999999994</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="29"/>
-        <v>6.1804010000000034</v>
-      </c>
-      <c r="E67" s="56">
-        <f t="shared" si="30"/>
-        <v>9.1318521386060253E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B68" s="58">
-        <v>76.220000999999996</v>
-      </c>
-      <c r="C68">
-        <v>68.503799999999998</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="29"/>
-        <v>7.7162009999999981</v>
-      </c>
-      <c r="E68" s="56">
-        <f t="shared" si="30"/>
-        <v>0.1126390214849395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B69" s="58">
-        <v>76.839995999999999</v>
-      </c>
-      <c r="C69">
-        <v>68.205500000000001</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="29"/>
-        <v>8.6344959999999986</v>
-      </c>
-      <c r="E69" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12659530389777948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B70" s="58">
-        <v>76.919998000000007</v>
-      </c>
-      <c r="C70">
-        <v>68.694999999999993</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="29"/>
-        <v>8.2249980000000136</v>
-      </c>
-      <c r="E70" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11973212024164807</v>
-      </c>
-      <c r="F70">
-        <v>68.186099999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B71" s="58">
-        <v>77.870002999999997</v>
-      </c>
-      <c r="C71">
-        <v>67.919700000000006</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="29"/>
-        <v>9.950302999999991</v>
-      </c>
-      <c r="E71" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14650098572284609</v>
-      </c>
-      <c r="F71">
-        <v>67.919700000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B72" s="58">
-        <v>76.639999000000003</v>
-      </c>
-      <c r="C72">
-        <v>66.243799999999993</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="29"/>
-        <v>10.39619900000001</v>
-      </c>
-      <c r="E72" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15693844556018843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B73" s="58">
-        <v>78.029999000000004</v>
-      </c>
-      <c r="C73">
-        <v>73.223399999999998</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="29"/>
-        <v>4.8065990000000056</v>
-      </c>
-      <c r="E73" s="56">
-        <f t="shared" si="30"/>
-        <v>6.5642936547606445E-2</v>
-      </c>
-      <c r="F73">
-        <v>73.223399999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B74" s="58">
-        <v>79.190002000000007</v>
-      </c>
-      <c r="C74">
-        <v>70.859099999999998</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="29"/>
-        <v>8.3309020000000089</v>
-      </c>
-      <c r="E74" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11756996631343059</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B75" s="58">
-        <v>79.290001000000004</v>
-      </c>
-      <c r="C75">
-        <v>68.477800000000002</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="29"/>
-        <v>10.812201000000002</v>
-      </c>
-      <c r="E75" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15789352169608253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B76" s="58">
-        <v>78.269997000000004</v>
-      </c>
-      <c r="C76">
-        <v>68.0334</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="29"/>
-        <v>10.236597000000003</v>
-      </c>
-      <c r="E76" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15046428665919978</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B77" s="58">
-        <v>77.910004000000001</v>
-      </c>
-      <c r="C77">
-        <v>67.810500000000005</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="29"/>
-        <v>10.099503999999996</v>
-      </c>
-      <c r="E77" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14893717049719432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B78" s="58">
-        <v>78.610000999999997</v>
-      </c>
-      <c r="C78">
-        <v>68.6648</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="29"/>
-        <v>9.9452009999999973</v>
-      </c>
-      <c r="E78" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14483696158730525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B79">
-        <v>76.489998</v>
-      </c>
-      <c r="C79">
-        <v>69.136099999999999</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ref="D79:D90" si="31">B79-C79</f>
-        <v>7.3538980000000009</v>
-      </c>
-      <c r="E79" s="56">
-        <f t="shared" ref="E79:E90" si="32">D79/C79</f>
-        <v>0.10636842402160378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B80" s="58">
-        <v>77.580001999999993</v>
-      </c>
-      <c r="C80">
-        <v>64.8416</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="31"/>
-        <v>12.738401999999994</v>
-      </c>
-      <c r="E80" s="56">
-        <f t="shared" si="32"/>
-        <v>0.19645415905838218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B81" s="58">
-        <v>78.870002999999997</v>
-      </c>
-      <c r="C81">
-        <v>69.340500000000006</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="31"/>
-        <v>9.5295029999999912</v>
-      </c>
-      <c r="E81" s="56">
-        <f t="shared" si="32"/>
-        <v>0.13743054924611145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B82" s="58">
-        <v>78.540001000000004</v>
-      </c>
-      <c r="C82">
-        <v>71.798100000000005</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="31"/>
-        <v>6.7419009999999986</v>
-      </c>
-      <c r="E82" s="56">
-        <f t="shared" si="32"/>
-        <v>9.390082745922243E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B83" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C83">
-        <v>70.0321</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="31"/>
-        <v>8.2279020000000003</v>
-      </c>
-      <c r="E83" s="56">
-        <f t="shared" si="32"/>
-        <v>0.11748758069513837</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B84" s="58">
-        <v>79.970000999999996</v>
-      </c>
-      <c r="C84">
-        <v>71.138300000000001</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="31"/>
-        <v>8.8317009999999954</v>
-      </c>
-      <c r="E84" s="56">
-        <f t="shared" si="32"/>
-        <v>0.12414832797522565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>45355</v>
-      </c>
-      <c r="B85" s="58">
-        <v>78.739998</v>
-      </c>
-      <c r="C85">
-        <v>68.456599999999995</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="31"/>
-        <v>10.283398000000005</v>
-      </c>
-      <c r="E85" s="56">
-        <f t="shared" si="32"/>
-        <v>0.15021777301239042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>45356</v>
-      </c>
-      <c r="B86" s="58">
-        <v>78.150002000000001</v>
-      </c>
-      <c r="C86">
-        <v>70.739099999999993</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="31"/>
-        <v>7.4109020000000072</v>
-      </c>
-      <c r="E86" s="56">
-        <f t="shared" si="32"/>
-        <v>0.1047638717484391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B87" s="58">
-        <v>79.129997000000003</v>
-      </c>
-      <c r="C87">
-        <v>72.393000000000001</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="31"/>
-        <v>6.7369970000000023</v>
-      </c>
-      <c r="E87" s="56">
-        <f t="shared" si="32"/>
-        <v>9.3061442404652417E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>45358</v>
-      </c>
-      <c r="B88" s="58">
-        <v>78.930000000000007</v>
-      </c>
-      <c r="C88">
-        <v>70.430300000000003</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="31"/>
-        <v>8.4997000000000043</v>
-      </c>
-      <c r="E88" s="56">
-        <f t="shared" si="32"/>
-        <v>0.12068243355487629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>45359</v>
-      </c>
-      <c r="B89" s="58">
-        <v>78.010002</v>
-      </c>
-      <c r="C89">
-        <v>70.142700000000005</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="31"/>
-        <v>7.8673019999999951</v>
-      </c>
-      <c r="E89" s="56">
-        <f t="shared" si="32"/>
-        <v>0.11216137958761203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>45362</v>
-      </c>
-      <c r="B90" s="58">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="C90">
-        <v>70.333200000000005</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="31"/>
-        <v>7.5968000000000018</v>
-      </c>
-      <c r="E90" s="56">
-        <f t="shared" si="32"/>
-        <v>0.10801157916887048</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="C91">
-        <v>72.405699999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2017AF9-536E-4B3E-BA4D-C4228A4E76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1118D-A544-4C01-8E45-CA4CC5191F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
@@ -9732,11 +9732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
+      <selection pane="bottomLeft" activeCell="A419" sqref="A419:B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17837,6 +17837,11 @@
       <c r="E419">
         <f t="shared" si="98"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="C420">
+        <v>4.2709960000000002</v>
       </c>
     </row>
   </sheetData>
@@ -20056,11 +20061,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21808,6 +21813,11 @@
         <v>7.1186356875218348E-2</v>
       </c>
     </row>
+    <row r="92" spans="1:5">
+      <c r="C92">
+        <v>71.224500000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21819,7 +21829,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22846,6 +22856,9 @@
     <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>45363</v>
+      </c>
+      <c r="B86">
+        <v>4.2793900000000002</v>
       </c>
       <c r="C86" s="61">
         <v>4.3122769999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5243EF-D59C-4147-A1D2-BA5D59F51413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B471696-AC05-41C8-BCB5-097A40D7CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8714576548263581E-3</v>
+        <v>2.6970055711845586E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D153" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D156" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E153" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E156" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8734,8 +8734,65 @@
       </c>
     </row>
     <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B154">
+        <v>3.9964840000000001</v>
+      </c>
       <c r="C154">
         <v>3.963076</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="40"/>
+        <v>3.3408000000000104E-2</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B155">
+        <v>3.9698829999999998</v>
+      </c>
+      <c r="C155">
+        <v>4.0141369999999998</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="40"/>
+        <v>-4.4254000000000016E-2</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B156">
+        <v>3.9759790000000002</v>
+      </c>
+      <c r="C156">
+        <v>3.9835587000000001</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="40"/>
+        <v>-7.579699999999967E-3</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="C157">
+        <v>3.9963275999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9884,11 +9941,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A427" sqref="A427:B427"/>
+      <selection pane="bottomLeft" activeCell="C432" sqref="C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9918,7 +9975,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3881165298594164E-2</v>
+        <v>-1.3970718921214717E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18097,11 +18154,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D427" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D430" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E427" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E430" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18144,8 +18201,65 @@
       </c>
     </row>
     <row r="428" spans="1:5">
+      <c r="A428" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B428">
+        <v>4.3190999999999997</v>
+      </c>
       <c r="C428">
         <v>4.3478570000000003</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="101"/>
+        <v>-2.8757000000000588E-2</v>
+      </c>
+      <c r="E428">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B429">
+        <v>4.3025000000000002</v>
+      </c>
+      <c r="C429">
+        <v>4.3300995999999996</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="101"/>
+        <v>-2.7599599999999391E-2</v>
+      </c>
+      <c r="E429">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B430">
+        <v>4.3068200000000001</v>
+      </c>
+      <c r="C430">
+        <v>4.3305254</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="101"/>
+        <v>-2.3705399999999877E-2</v>
+      </c>
+      <c r="E430">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="C431">
+        <v>4.3190217000000004</v>
       </c>
     </row>
   </sheetData>
@@ -22175,7 +22289,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23302,6 +23416,9 @@
       <c r="A95" s="1">
         <v>45376</v>
       </c>
+      <c r="B95">
+        <v>4.3190999999999997</v>
+      </c>
       <c r="C95" s="61">
         <v>4.2968286999999998</v>
       </c>
@@ -23310,6 +23427,9 @@
       <c r="A96" s="1">
         <v>45377</v>
       </c>
+      <c r="B96">
+        <v>4.3025000000000002</v>
+      </c>
       <c r="C96" s="61">
         <v>4.3011739999999996</v>
       </c>
@@ -23317,6 +23437,9 @@
     <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>45378</v>
+      </c>
+      <c r="B97">
+        <v>4.3068200000000001</v>
       </c>
       <c r="C97" s="61">
         <v>4.3087150000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B471696-AC05-41C8-BCB5-097A40D7CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196DDC7-CE27-4F69-A996-B7CCC14B4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.6970055711845586E-3</v>
+        <v>2.6186427149590178E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D156" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D157" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E156" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E157" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8791,8 +8791,27 @@
       </c>
     </row>
     <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B157">
+        <v>3.9868000000000001</v>
+      </c>
       <c r="C157">
         <v>3.9963275999999999</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="40"/>
+        <v>-9.5275999999997474E-3</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="C158">
+        <v>3.9655209999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9941,11 +9960,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C432" sqref="C432"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A431" sqref="A431:B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9975,7 +9994,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3970718921214717E-2</v>
+        <v>-1.3954697946979336E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18154,11 +18173,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D430" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D431" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E430" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E431" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18258,8 +18277,27 @@
       </c>
     </row>
     <row r="431" spans="1:5">
+      <c r="A431" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B431">
+        <v>4.3119399999999999</v>
+      </c>
       <c r="C431">
         <v>4.3190217000000004</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="101"/>
+        <v>-7.0817000000005237E-3</v>
+      </c>
+      <c r="E431">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="C432">
+        <v>4.3305553999999997</v>
       </c>
     </row>
   </sheetData>
@@ -22285,11 +22323,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23449,8 +23487,51 @@
       <c r="A98" s="1">
         <v>45379</v>
       </c>
+      <c r="B98">
+        <v>4.3119399999999999</v>
+      </c>
       <c r="C98" s="61">
         <v>4.3219099999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45380</v>
+      </c>
+      <c r="C99" s="61">
+        <v>4.3158035000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C100" s="61">
+        <v>4.3159236999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45384</v>
+      </c>
+      <c r="C101" s="61">
+        <v>4.3132320000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45385</v>
+      </c>
+      <c r="C102" s="61">
+        <v>4.312487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45386</v>
+      </c>
+      <c r="C103" s="61">
+        <v>4.3127583999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AEE9C-C22E-467C-88CF-9F6ABC55F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E573C4-5A1D-4895-9E3A-C7BC68421E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.9746828970850401E-3</v>
+        <v>3.1830016368546979E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D161" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D162" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E161" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E162" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8886,8 +8886,27 @@
       </c>
     </row>
     <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B162">
+        <v>3.9842219999999999</v>
+      </c>
       <c r="C162">
         <v>3.947708</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="40"/>
+        <v>3.6513999999999935E-2</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="C163">
+        <v>3.9944750999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10036,11 +10055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A435" sqref="A435:B435"/>
+      <selection pane="bottomLeft" activeCell="A436" sqref="A436:B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10070,7 +10089,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4218485293090121E-2</v>
+        <v>-1.4223542338393362E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18249,11 +18268,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D435" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D436" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E435" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E436" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18448,8 +18467,27 @@
       </c>
     </row>
     <row r="436" spans="1:5">
+      <c r="A436" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B436">
+        <v>4.2902500000000003</v>
+      </c>
       <c r="C436">
         <v>4.3066683000000001</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="101"/>
+        <v>-1.6418299999999775E-2</v>
+      </c>
+      <c r="E436">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="C437">
+        <v>4.3047769999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22475,11 +22513,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23694,8 +23732,51 @@
       <c r="A103" s="1">
         <v>45386</v>
       </c>
+      <c r="B103">
+        <v>4.2902500000000003</v>
+      </c>
       <c r="C103" s="61">
         <v>4.3127583999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45387</v>
+      </c>
+      <c r="C104" s="61">
+        <v>4.3017700000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45390</v>
+      </c>
+      <c r="C105" s="61">
+        <v>4.3098660000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45391</v>
+      </c>
+      <c r="C106" s="61">
+        <v>4.3089212999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45392</v>
+      </c>
+      <c r="C107" s="61">
+        <v>4.3071070000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45393</v>
+      </c>
+      <c r="C108" s="61">
+        <v>4.3006853999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E573C4-5A1D-4895-9E3A-C7BC68421E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB12B4-67AC-4049-970E-843AE4F417FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.1830016368546979E-3</v>
+        <v>2.9386738489728791E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D162" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D163" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E162" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E163" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8905,8 +8905,27 @@
       </c>
     </row>
     <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B163">
+        <v>3.9580769999999998</v>
+      </c>
       <c r="C163">
         <v>3.9944750999999998</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="40"/>
+        <v>-3.6398099999999989E-2</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="C164">
+        <v>3.9541515999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10055,11 +10074,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A436" sqref="A436:B436"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437:B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10089,7 +10108,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4223542338393362E-2</v>
+        <v>-1.4226761277984201E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18268,11 +18287,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D436" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D437" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E436" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E437" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18486,8 +18505,28 @@
       </c>
     </row>
     <row r="437" spans="1:5">
+      <c r="A437" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B437">
+        <v>4.2891500000000002</v>
+      </c>
       <c r="C437">
         <v>4.3047769999999996</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="101"/>
+        <v>-1.5626999999999391E-2</v>
+      </c>
+      <c r="E437">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1"/>
+      <c r="C438">
+        <v>4.3076463</v>
       </c>
     </row>
   </sheetData>
@@ -22517,7 +22556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:B103"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23742,6 +23781,9 @@
     <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>45387</v>
+      </c>
+      <c r="B104">
+        <v>4.2891500000000002</v>
       </c>
       <c r="C104" s="61">
         <v>4.3017700000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB12B4-67AC-4049-970E-843AE4F417FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBE9184-CA73-4794-BF04-FE1A1F4DE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.9386738489728791E-3</v>
+        <v>3.6932440930156104E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D163" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D168" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E163" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E168" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8924,8 +8924,103 @@
       </c>
     </row>
     <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B164">
+        <v>3.9529299999999998</v>
+      </c>
       <c r="C164">
         <v>3.9541515999999999</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="40"/>
+        <v>-1.2216000000000449E-3</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B165">
+        <v>3.920814</v>
+      </c>
+      <c r="C165">
+        <v>3.9204593000000001</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="40"/>
+        <v>3.5469999999993007E-4</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B166">
+        <v>3.9284300000000001</v>
+      </c>
+      <c r="C166">
+        <v>3.9409296999999999</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="40"/>
+        <v>-1.249969999999978E-2</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B167">
+        <v>3.9679720000000001</v>
+      </c>
+      <c r="C167">
+        <v>3.8961679999999999</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="40"/>
+        <v>7.1804000000000201E-2</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B168">
+        <v>3.9728520000000001</v>
+      </c>
+      <c r="C168">
+        <v>3.8905827999999998</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="40"/>
+        <v>8.2269200000000264E-2</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="C169">
+        <v>3.9539021999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10074,11 +10169,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437:B437"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10108,7 +10203,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4226761277984201E-2</v>
+        <v>-1.4258688927893682E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18287,11 +18382,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D437" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D442" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E437" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E442" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18524,9 +18619,103 @@
       </c>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B438">
+        <v>4.2779999999999996</v>
+      </c>
       <c r="C438">
         <v>4.3076463</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="101"/>
+        <v>-2.9646300000000458E-2</v>
+      </c>
+      <c r="E438">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B439">
+        <v>4.2587099999999998</v>
+      </c>
+      <c r="C439">
+        <v>4.2658052</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="101"/>
+        <v>-7.0952000000001902E-3</v>
+      </c>
+      <c r="E439">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B440">
+        <v>4.2657499999999997</v>
+      </c>
+      <c r="C440">
+        <v>4.2878790000000002</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="101"/>
+        <v>-2.2129000000000509E-2</v>
+      </c>
+      <c r="E440">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B441">
+        <v>4.2618</v>
+      </c>
+      <c r="C441">
+        <v>4.2792377000000004</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="101"/>
+        <v>-1.7437700000000333E-2</v>
+      </c>
+      <c r="E441">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B442">
+        <v>4.2614799999999997</v>
+      </c>
+      <c r="C442">
+        <v>4.2703857000000003</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="101"/>
+        <v>-8.9057000000005715E-3</v>
+      </c>
+      <c r="E442">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443">
+        <v>4.2673920000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22552,11 +22741,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23793,6 +23982,9 @@
       <c r="A105" s="1">
         <v>45390</v>
       </c>
+      <c r="B105">
+        <v>4.2779999999999996</v>
+      </c>
       <c r="C105" s="61">
         <v>4.3098660000000004</v>
       </c>
@@ -23801,6 +23993,9 @@
       <c r="A106" s="1">
         <v>45391</v>
       </c>
+      <c r="B106">
+        <v>4.2587099999999998</v>
+      </c>
       <c r="C106" s="61">
         <v>4.3089212999999997</v>
       </c>
@@ -23809,6 +24004,9 @@
       <c r="A107" s="1">
         <v>45392</v>
       </c>
+      <c r="B107">
+        <v>4.2657499999999997</v>
+      </c>
       <c r="C107" s="61">
         <v>4.3071070000000002</v>
       </c>
@@ -23817,8 +24015,54 @@
       <c r="A108" s="1">
         <v>45393</v>
       </c>
+      <c r="B108">
+        <v>4.2618</v>
+      </c>
       <c r="C108" s="61">
         <v>4.3006853999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B109">
+        <v>4.2614799999999997</v>
+      </c>
+      <c r="C109" s="61">
+        <v>4.3146515000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45397</v>
+      </c>
+      <c r="C110" s="61">
+        <v>4.3152594999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45398</v>
+      </c>
+      <c r="C111" s="61">
+        <v>4.3107819999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45399</v>
+      </c>
+      <c r="C112" s="61">
+        <v>4.306127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45400</v>
+      </c>
+      <c r="C113" s="61">
+        <v>4.2943689999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0977BCB-41B2-4563-A279-77328A98FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E4184-2D04-4D3D-AA09-5DD4BEE9379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.9578532018954941E-3</v>
+        <v>2.992338598544302E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D177" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D184" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E177" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E184" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9190,8 +9190,141 @@
       </c>
     </row>
     <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B178">
+        <v>4.0194000000000001</v>
+      </c>
       <c r="C178">
         <v>4.0895320000000002</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="40"/>
+        <v>-7.0132000000000083E-2</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B179">
+        <v>4.0339039999999997</v>
+      </c>
+      <c r="C179">
+        <v>4.0375430000000003</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="40"/>
+        <v>-3.639000000000614E-3</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B180">
+        <v>4.025188</v>
+      </c>
+      <c r="C180">
+        <v>4.0863985999999999</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="40"/>
+        <v>-6.1210599999999893E-2</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B181">
+        <v>4.05959</v>
+      </c>
+      <c r="C181">
+        <v>3.9980273</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="40"/>
+        <v>6.1562700000000081E-2</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B182">
+        <v>4.0334000000000003</v>
+      </c>
+      <c r="C182">
+        <v>4.0914992999999997</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="40"/>
+        <v>-5.809929999999941E-2</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B183">
+        <v>4.0334580000000004</v>
+      </c>
+      <c r="C183">
+        <v>4.0350900000000003</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="40"/>
+        <v>-1.6319999999998558E-3</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B184">
+        <v>4.0131810000000003</v>
+      </c>
+      <c r="C184">
+        <v>4.0290150000000002</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="40"/>
+        <v>-1.5833999999999904E-2</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="C185">
+        <v>4.0610080000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10340,11 +10473,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451:B451"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10374,7 +10507,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4078515371558032E-2</v>
+        <v>-1.4049057586873335E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18553,11 +18686,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D451" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D453" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E451" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E453" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19056,8 +19189,141 @@
       </c>
     </row>
     <row r="452" spans="1:5">
+      <c r="A452" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B452">
+        <v>4.3116000000000003</v>
+      </c>
       <c r="C452">
         <v>4.349297</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="101"/>
+        <v>-3.7696999999999647E-2</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B453">
+        <v>4.3189399999999996</v>
+      </c>
+      <c r="C453">
+        <v>4.3601074000000004</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="101"/>
+        <v>-4.1167400000000853E-2</v>
+      </c>
+      <c r="E453">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B454">
+        <v>4.3131500000000003</v>
+      </c>
+      <c r="C454">
+        <v>4.3265095000000002</v>
+      </c>
+      <c r="D454">
+        <f t="shared" ref="D454:D458" si="103">B454-C454</f>
+        <v>-1.3359499999999969E-2</v>
+      </c>
+      <c r="E454">
+        <f t="shared" ref="E454:E458" si="104">IF(D454&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B455">
+        <v>4.3302300000000002</v>
+      </c>
+      <c r="C455">
+        <v>4.3135184999999998</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="103"/>
+        <v>1.6711500000000434E-2</v>
+      </c>
+      <c r="E455">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B456">
+        <v>4.3250099999999998</v>
+      </c>
+      <c r="C456">
+        <v>4.3296403999999997</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="103"/>
+        <v>-4.6303999999999235E-3</v>
+      </c>
+      <c r="E456">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B457">
+        <v>4.3278999999999996</v>
+      </c>
+      <c r="C457">
+        <v>4.3252262999999997</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="103"/>
+        <v>2.6736999999998901E-3</v>
+      </c>
+      <c r="E457">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B458">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C458">
+        <v>4.3249183000000002</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="103"/>
+        <v>-7.6182999999998557E-3</v>
+      </c>
+      <c r="E458">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="C459">
+        <v>4.3740262999999997</v>
       </c>
     </row>
   </sheetData>
@@ -23083,11 +23349,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24478,6 +24744,9 @@
       <c r="A119" s="1">
         <v>45408</v>
       </c>
+      <c r="B119">
+        <v>4.3116000000000003</v>
+      </c>
       <c r="C119" s="61">
         <v>4.3050113000000003</v>
       </c>
@@ -24486,6 +24755,9 @@
       <c r="A120" s="1">
         <v>45411</v>
       </c>
+      <c r="B120">
+        <v>4.3189399999999996</v>
+      </c>
       <c r="C120" s="61">
         <v>4.3039804000000004</v>
       </c>
@@ -24494,6 +24766,9 @@
       <c r="A121" s="1">
         <v>45412</v>
       </c>
+      <c r="B121">
+        <v>4.3131500000000003</v>
+      </c>
       <c r="C121" s="61">
         <v>4.3125460000000002</v>
       </c>
@@ -24502,6 +24777,9 @@
       <c r="A122" s="1">
         <v>45413</v>
       </c>
+      <c r="B122">
+        <v>4.3302300000000002</v>
+      </c>
       <c r="C122" s="61">
         <v>4.3213179999999998</v>
       </c>
@@ -24510,8 +24788,54 @@
       <c r="A123" s="1">
         <v>45414</v>
       </c>
+      <c r="B123">
+        <v>4.3250099999999998</v>
+      </c>
       <c r="C123" s="61">
         <v>4.3353010000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B124">
+        <v>4.3278999999999996</v>
+      </c>
+      <c r="C124" s="61">
+        <v>4.3229959999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45418</v>
+      </c>
+      <c r="C125" s="61">
+        <v>4.3322615999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45419</v>
+      </c>
+      <c r="C126" s="61">
+        <v>4.3343835000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45420</v>
+      </c>
+      <c r="C127" s="61">
+        <v>4.3417269999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45421</v>
+      </c>
+      <c r="C128" s="61">
+        <v>4.3501678000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FEF66-2AB5-432E-A966-3034FD64B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183D781-4C43-4CA6-B3C8-862E8346B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.5975401265247713E-3</v>
+        <v>2.6401960826255731E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8330,7 +8330,7 @@
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E187" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E186" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f>B164-C164</f>
+        <f t="shared" ref="D164:D189" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -8953,7 +8953,7 @@
         <v>3.9204593000000001</v>
       </c>
       <c r="D165">
-        <f>B165-C165</f>
+        <f t="shared" si="42"/>
         <v>3.5469999999993007E-4</v>
       </c>
       <c r="E165">
@@ -8972,7 +8972,7 @@
         <v>3.9409296999999999</v>
       </c>
       <c r="D166">
-        <f>B166-C166</f>
+        <f t="shared" si="42"/>
         <v>-1.249969999999978E-2</v>
       </c>
       <c r="E166">
@@ -8991,7 +8991,7 @@
         <v>3.8961679999999999</v>
       </c>
       <c r="D167">
-        <f>B167-C167</f>
+        <f t="shared" si="42"/>
         <v>7.1804000000000201E-2</v>
       </c>
       <c r="E167">
@@ -9010,7 +9010,7 @@
         <v>3.8905827999999998</v>
       </c>
       <c r="D168">
-        <f>B168-C168</f>
+        <f t="shared" si="42"/>
         <v>8.2269200000000264E-2</v>
       </c>
       <c r="E168">
@@ -9029,7 +9029,7 @@
         <v>3.9539021999999999</v>
       </c>
       <c r="D169">
-        <f>B169-C169</f>
+        <f t="shared" si="42"/>
         <v>6.5988800000000403E-2</v>
       </c>
       <c r="E169">
@@ -9048,7 +9048,7 @@
         <v>3.9894185000000002</v>
       </c>
       <c r="D170">
-        <f>B170-C170</f>
+        <f t="shared" si="42"/>
         <v>5.8184499999999417E-2</v>
       </c>
       <c r="E170">
@@ -9067,7 +9067,7 @@
         <v>4.0683894</v>
       </c>
       <c r="D171">
-        <f>B171-C171</f>
+        <f t="shared" si="42"/>
         <v>4.2334600000000222E-2</v>
       </c>
       <c r="E171">
@@ -9086,7 +9086,7 @@
         <v>4.1070184999999997</v>
       </c>
       <c r="D172">
-        <f>B172-C172</f>
+        <f t="shared" si="42"/>
         <v>-4.1970499999999689E-2</v>
       </c>
       <c r="E172">
@@ -9105,7 +9105,7 @@
         <v>4.0998720000000004</v>
       </c>
       <c r="D173">
-        <f>B173-C173</f>
+        <f t="shared" si="42"/>
         <v>-2.5321000000000815E-2</v>
       </c>
       <c r="E173">
@@ -9124,7 +9124,7 @@
         <v>4.0706085999999999</v>
       </c>
       <c r="D174">
-        <f>B174-C174</f>
+        <f t="shared" si="42"/>
         <v>-3.176459999999981E-2</v>
       </c>
       <c r="E174">
@@ -9143,7 +9143,7 @@
         <v>4.0489199999999999</v>
       </c>
       <c r="D175">
-        <f>B175-C175</f>
+        <f t="shared" si="42"/>
         <v>-8.2000000000004292E-4</v>
       </c>
       <c r="E175">
@@ -9162,7 +9162,7 @@
         <v>4.0666026999999998</v>
       </c>
       <c r="D176">
-        <f>B176-C176</f>
+        <f t="shared" si="42"/>
         <v>-4.3802699999999639E-2</v>
       </c>
       <c r="E176">
@@ -9181,7 +9181,7 @@
         <v>3.9908907</v>
       </c>
       <c r="D177">
-        <f>B177-C177</f>
+        <f t="shared" si="42"/>
         <v>5.6981299999999901E-2</v>
       </c>
       <c r="E177">
@@ -9200,7 +9200,7 @@
         <v>4.0895320000000002</v>
       </c>
       <c r="D178">
-        <f>B178-C178</f>
+        <f t="shared" si="42"/>
         <v>-7.0132000000000083E-2</v>
       </c>
       <c r="E178">
@@ -9219,7 +9219,7 @@
         <v>4.0375430000000003</v>
       </c>
       <c r="D179">
-        <f>B179-C179</f>
+        <f t="shared" si="42"/>
         <v>-3.639000000000614E-3</v>
       </c>
       <c r="E179">
@@ -9241,7 +9241,7 @@
         <v>4.0863985999999999</v>
       </c>
       <c r="D180">
-        <f>B180-C180</f>
+        <f t="shared" si="42"/>
         <v>-6.1210599999999893E-2</v>
       </c>
       <c r="E180">
@@ -9260,7 +9260,7 @@
         <v>3.9980273</v>
       </c>
       <c r="D181">
-        <f>B181-C181</f>
+        <f t="shared" si="42"/>
         <v>6.1562700000000081E-2</v>
       </c>
       <c r="E181">
@@ -9279,7 +9279,7 @@
         <v>4.0914992999999997</v>
       </c>
       <c r="D182">
-        <f>B182-C182</f>
+        <f t="shared" si="42"/>
         <v>-5.809929999999941E-2</v>
       </c>
       <c r="E182">
@@ -9298,7 +9298,7 @@
         <v>4.0350900000000003</v>
       </c>
       <c r="D183">
-        <f>B183-C183</f>
+        <f t="shared" si="42"/>
         <v>-1.6319999999998558E-3</v>
       </c>
       <c r="E183">
@@ -9317,7 +9317,7 @@
         <v>4.0290150000000002</v>
       </c>
       <c r="D184">
-        <f>B184-C184</f>
+        <f t="shared" si="42"/>
         <v>-1.5833999999999904E-2</v>
       </c>
       <c r="E184">
@@ -9336,7 +9336,7 @@
         <v>4.0610080000000002</v>
       </c>
       <c r="D185">
-        <f>B185-C185</f>
+        <f t="shared" si="42"/>
         <v>-6.3018000000000018E-2</v>
       </c>
       <c r="E185">
@@ -9355,7 +9355,7 @@
         <v>3.9896855000000002</v>
       </c>
       <c r="D186">
-        <f>B186-C186</f>
+        <f t="shared" si="42"/>
         <v>2.0444499999999977E-2</v>
       </c>
       <c r="E186">
@@ -9374,17 +9374,55 @@
         <v>4.0224500000000001</v>
       </c>
       <c r="D187">
-        <f>B187-C187</f>
+        <f t="shared" si="42"/>
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187" si="42">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E189" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B188">
+        <v>3.9714520000000002</v>
+      </c>
       <c r="C188">
         <v>4.0028085999999998</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="42"/>
+        <v>-3.1356599999999624E-2</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B189">
+        <v>3.9922939999999998</v>
+      </c>
+      <c r="C189">
+        <v>3.9477229999999999</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="42"/>
+        <v>4.4570999999999916E-2</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="C190">
+        <v>4.0222699999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10533,11 +10571,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I464"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A461" sqref="A461:B461"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10567,7 +10605,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4067369602611119E-2</v>
+        <v>-1.4151520600002413E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19439,8 +19477,46 @@
       </c>
     </row>
     <row r="462" spans="1:5">
+      <c r="A462" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B462">
+        <v>4.2819000000000003</v>
+      </c>
       <c r="C462">
         <v>4.3411650000000002</v>
+      </c>
+      <c r="D462">
+        <f t="shared" ref="D462:D463" si="109">B462-C462</f>
+        <v>-5.9264999999999901E-2</v>
+      </c>
+      <c r="E462">
+        <f t="shared" ref="E462:E463" si="110">IF(D462&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B463">
+        <v>4.29976</v>
+      </c>
+      <c r="C463">
+        <v>4.3075074999999998</v>
+      </c>
+      <c r="D463">
+        <f t="shared" si="109"/>
+        <v>-7.7474999999997962E-3</v>
+      </c>
+      <c r="E463">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="C464">
+        <v>4.3031509999999997</v>
       </c>
     </row>
   </sheetData>
@@ -23466,11 +23542,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128:B128"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24967,45 +25043,60 @@
         <v>4.3501678000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>45422</v>
       </c>
+      <c r="B129">
+        <v>4.2819000000000003</v>
+      </c>
       <c r="C129" s="61">
-        <v>4.3818764999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>4.3358525999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>45425</v>
       </c>
+      <c r="B130">
+        <v>4.29976</v>
+      </c>
       <c r="C130" s="61">
-        <v>4.4115523999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>4.3569430000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>45426</v>
       </c>
       <c r="C131" s="61">
-        <v>4.4328960000000004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>4.3464700000000001</v>
+      </c>
+      <c r="F131" s="61"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>45427</v>
       </c>
       <c r="C132" s="61">
-        <v>4.4454960000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>4.3414817000000001</v>
+      </c>
+      <c r="F132" s="61"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>45428</v>
       </c>
       <c r="C133" s="61">
-        <v>4.4544459999999999</v>
-      </c>
+        <v>4.3315033999999999</v>
+      </c>
+      <c r="F133" s="61"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="F134" s="61"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="F135" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183D781-4C43-4CA6-B3C8-862E8346B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59004C-6B95-42A1-AD13-E9055052F4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.6401960826255731E-3</v>
+        <v>2.3424278493841687E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8934,7 +8934,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D189" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D190" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9378,7 +9378,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E189" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E190" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9421,8 +9421,27 @@
       </c>
     </row>
     <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B190">
+        <v>3.9686319999999999</v>
+      </c>
       <c r="C190">
         <v>4.0222699999999998</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="42"/>
+        <v>-5.3637999999999852E-2</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="C191">
+        <v>3.9546250000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10571,11 +10590,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I464"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
+      <selection pane="bottomLeft" activeCell="A464" sqref="A464:B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10605,7 +10624,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4151520600002413E-2</v>
+        <v>-1.4162448201298302E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19487,11 +19506,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D463" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D464" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E463" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E464" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19515,8 +19534,27 @@
       </c>
     </row>
     <row r="464" spans="1:5">
+      <c r="A464" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B464">
+        <v>4.2839400000000003</v>
+      </c>
       <c r="C464">
         <v>4.3031509999999997</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="109"/>
+        <v>-1.9210999999999423E-2</v>
+      </c>
+      <c r="E464">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465">
+        <v>4.3449283000000003</v>
       </c>
     </row>
   </sheetData>
@@ -23546,7 +23584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129:F135"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25068,6 +25106,9 @@
     <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>45426</v>
+      </c>
+      <c r="B131">
+        <v>4.2839400000000003</v>
       </c>
       <c r="C131" s="61">
         <v>4.3464700000000001</v>
